--- a/05.Controls/M3.QA.Controls/Resources/Excels/COA5.xlsx
+++ b/05.Controls/M3.QA.Controls/Resources/Excels/COA5.xlsx
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
-  <si>
-    <t>COA For Item</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Toray Textiles (Thailand) Public Company Limited  Mill 3</t>
   </si>
@@ -87,21 +84,12 @@
     <t>%</t>
   </si>
   <si>
-    <t>PX - 03 (13.0%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
     <t>DIP SOLUTION CHECKING REPORT</t>
   </si>
   <si>
-    <t>USER : TOYODA GOSEI ( THAI )</t>
-  </si>
-  <si>
-    <t>DIP SOLUTION : PX - 03 ( 13.0% )</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOT NO.  :   </t>
   </si>
   <si>
@@ -135,7 +123,10 @@
     <t>FM-QC-28 Effective date : 3 / Feb  / 23  Approved by  : QC</t>
   </si>
   <si>
-    <t>22L26</t>
+    <t xml:space="preserve">DIP SOLUTION : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USER : </t>
   </si>
 </sst>
 </file>
@@ -143,11 +134,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="[$-1010409]d\ mmm\ yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010409]d\ mmm\ yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +168,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="AngsanaUPC"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
       <name val="AngsanaUPC"/>
       <family val="1"/>
     </font>
@@ -230,18 +214,6 @@
       <charset val="222"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="AngsanaUPC"/>
@@ -423,59 +395,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,81 +455,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +600,7 @@
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CF9831F-5240-402C-ABCD-09B0C8E6EC7C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF9831F-5240-402C-ABCD-09B0C8E6EC7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -650,7 +612,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -673,14 +635,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -986,7 +948,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -994,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="23.4"/>
@@ -1012,826 +974,806 @@
     <col min="8" max="8" width="3.5546875" style="11" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.21875" style="11" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="4.77734375" style="11" hidden="1" customWidth="1"/>
-    <col min="12" max="17" width="7.5546875" style="11"/>
-    <col min="18" max="18" width="9.88671875" style="11" customWidth="1"/>
-    <col min="19" max="256" width="7.5546875" style="11"/>
-    <col min="257" max="257" width="12.44140625" style="11" customWidth="1"/>
-    <col min="258" max="258" width="13.21875" style="11" customWidth="1"/>
-    <col min="259" max="259" width="5.21875" style="11" customWidth="1"/>
-    <col min="260" max="260" width="13.21875" style="11" customWidth="1"/>
-    <col min="261" max="261" width="13" style="11" customWidth="1"/>
-    <col min="262" max="262" width="9.77734375" style="11" customWidth="1"/>
-    <col min="263" max="263" width="11.77734375" style="11" customWidth="1"/>
-    <col min="264" max="267" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="268" max="512" width="7.5546875" style="11"/>
-    <col min="513" max="513" width="12.44140625" style="11" customWidth="1"/>
-    <col min="514" max="514" width="13.21875" style="11" customWidth="1"/>
-    <col min="515" max="515" width="5.21875" style="11" customWidth="1"/>
-    <col min="516" max="516" width="13.21875" style="11" customWidth="1"/>
-    <col min="517" max="517" width="13" style="11" customWidth="1"/>
-    <col min="518" max="518" width="9.77734375" style="11" customWidth="1"/>
-    <col min="519" max="519" width="11.77734375" style="11" customWidth="1"/>
-    <col min="520" max="523" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="524" max="768" width="7.5546875" style="11"/>
-    <col min="769" max="769" width="12.44140625" style="11" customWidth="1"/>
-    <col min="770" max="770" width="13.21875" style="11" customWidth="1"/>
-    <col min="771" max="771" width="5.21875" style="11" customWidth="1"/>
-    <col min="772" max="772" width="13.21875" style="11" customWidth="1"/>
-    <col min="773" max="773" width="13" style="11" customWidth="1"/>
-    <col min="774" max="774" width="9.77734375" style="11" customWidth="1"/>
-    <col min="775" max="775" width="11.77734375" style="11" customWidth="1"/>
-    <col min="776" max="779" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="780" max="1024" width="7.5546875" style="11"/>
-    <col min="1025" max="1025" width="12.44140625" style="11" customWidth="1"/>
-    <col min="1026" max="1026" width="13.21875" style="11" customWidth="1"/>
-    <col min="1027" max="1027" width="5.21875" style="11" customWidth="1"/>
-    <col min="1028" max="1028" width="13.21875" style="11" customWidth="1"/>
-    <col min="1029" max="1029" width="13" style="11" customWidth="1"/>
-    <col min="1030" max="1030" width="9.77734375" style="11" customWidth="1"/>
-    <col min="1031" max="1031" width="11.77734375" style="11" customWidth="1"/>
-    <col min="1032" max="1035" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="1036" max="1280" width="7.5546875" style="11"/>
-    <col min="1281" max="1281" width="12.44140625" style="11" customWidth="1"/>
-    <col min="1282" max="1282" width="13.21875" style="11" customWidth="1"/>
-    <col min="1283" max="1283" width="5.21875" style="11" customWidth="1"/>
-    <col min="1284" max="1284" width="13.21875" style="11" customWidth="1"/>
-    <col min="1285" max="1285" width="13" style="11" customWidth="1"/>
-    <col min="1286" max="1286" width="9.77734375" style="11" customWidth="1"/>
-    <col min="1287" max="1287" width="11.77734375" style="11" customWidth="1"/>
-    <col min="1288" max="1291" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="1292" max="1536" width="7.5546875" style="11"/>
-    <col min="1537" max="1537" width="12.44140625" style="11" customWidth="1"/>
-    <col min="1538" max="1538" width="13.21875" style="11" customWidth="1"/>
-    <col min="1539" max="1539" width="5.21875" style="11" customWidth="1"/>
-    <col min="1540" max="1540" width="13.21875" style="11" customWidth="1"/>
-    <col min="1541" max="1541" width="13" style="11" customWidth="1"/>
-    <col min="1542" max="1542" width="9.77734375" style="11" customWidth="1"/>
-    <col min="1543" max="1543" width="11.77734375" style="11" customWidth="1"/>
-    <col min="1544" max="1547" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="1548" max="1792" width="7.5546875" style="11"/>
-    <col min="1793" max="1793" width="12.44140625" style="11" customWidth="1"/>
-    <col min="1794" max="1794" width="13.21875" style="11" customWidth="1"/>
-    <col min="1795" max="1795" width="5.21875" style="11" customWidth="1"/>
-    <col min="1796" max="1796" width="13.21875" style="11" customWidth="1"/>
-    <col min="1797" max="1797" width="13" style="11" customWidth="1"/>
-    <col min="1798" max="1798" width="9.77734375" style="11" customWidth="1"/>
-    <col min="1799" max="1799" width="11.77734375" style="11" customWidth="1"/>
-    <col min="1800" max="1803" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="1804" max="2048" width="7.5546875" style="11"/>
-    <col min="2049" max="2049" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2050" max="2050" width="13.21875" style="11" customWidth="1"/>
-    <col min="2051" max="2051" width="5.21875" style="11" customWidth="1"/>
-    <col min="2052" max="2052" width="13.21875" style="11" customWidth="1"/>
-    <col min="2053" max="2053" width="13" style="11" customWidth="1"/>
-    <col min="2054" max="2054" width="9.77734375" style="11" customWidth="1"/>
-    <col min="2055" max="2055" width="11.77734375" style="11" customWidth="1"/>
-    <col min="2056" max="2059" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="2060" max="2304" width="7.5546875" style="11"/>
-    <col min="2305" max="2305" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2306" max="2306" width="13.21875" style="11" customWidth="1"/>
-    <col min="2307" max="2307" width="5.21875" style="11" customWidth="1"/>
-    <col min="2308" max="2308" width="13.21875" style="11" customWidth="1"/>
-    <col min="2309" max="2309" width="13" style="11" customWidth="1"/>
-    <col min="2310" max="2310" width="9.77734375" style="11" customWidth="1"/>
-    <col min="2311" max="2311" width="11.77734375" style="11" customWidth="1"/>
-    <col min="2312" max="2315" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="2316" max="2560" width="7.5546875" style="11"/>
-    <col min="2561" max="2561" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2562" max="2562" width="13.21875" style="11" customWidth="1"/>
-    <col min="2563" max="2563" width="5.21875" style="11" customWidth="1"/>
-    <col min="2564" max="2564" width="13.21875" style="11" customWidth="1"/>
-    <col min="2565" max="2565" width="13" style="11" customWidth="1"/>
-    <col min="2566" max="2566" width="9.77734375" style="11" customWidth="1"/>
-    <col min="2567" max="2567" width="11.77734375" style="11" customWidth="1"/>
-    <col min="2568" max="2571" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="2572" max="2816" width="7.5546875" style="11"/>
-    <col min="2817" max="2817" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2818" max="2818" width="13.21875" style="11" customWidth="1"/>
-    <col min="2819" max="2819" width="5.21875" style="11" customWidth="1"/>
-    <col min="2820" max="2820" width="13.21875" style="11" customWidth="1"/>
-    <col min="2821" max="2821" width="13" style="11" customWidth="1"/>
-    <col min="2822" max="2822" width="9.77734375" style="11" customWidth="1"/>
-    <col min="2823" max="2823" width="11.77734375" style="11" customWidth="1"/>
-    <col min="2824" max="2827" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="2828" max="3072" width="7.5546875" style="11"/>
-    <col min="3073" max="3073" width="12.44140625" style="11" customWidth="1"/>
-    <col min="3074" max="3074" width="13.21875" style="11" customWidth="1"/>
-    <col min="3075" max="3075" width="5.21875" style="11" customWidth="1"/>
-    <col min="3076" max="3076" width="13.21875" style="11" customWidth="1"/>
-    <col min="3077" max="3077" width="13" style="11" customWidth="1"/>
-    <col min="3078" max="3078" width="9.77734375" style="11" customWidth="1"/>
-    <col min="3079" max="3079" width="11.77734375" style="11" customWidth="1"/>
-    <col min="3080" max="3083" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="3084" max="3328" width="7.5546875" style="11"/>
-    <col min="3329" max="3329" width="12.44140625" style="11" customWidth="1"/>
-    <col min="3330" max="3330" width="13.21875" style="11" customWidth="1"/>
-    <col min="3331" max="3331" width="5.21875" style="11" customWidth="1"/>
-    <col min="3332" max="3332" width="13.21875" style="11" customWidth="1"/>
-    <col min="3333" max="3333" width="13" style="11" customWidth="1"/>
-    <col min="3334" max="3334" width="9.77734375" style="11" customWidth="1"/>
-    <col min="3335" max="3335" width="11.77734375" style="11" customWidth="1"/>
-    <col min="3336" max="3339" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="3340" max="3584" width="7.5546875" style="11"/>
-    <col min="3585" max="3585" width="12.44140625" style="11" customWidth="1"/>
-    <col min="3586" max="3586" width="13.21875" style="11" customWidth="1"/>
-    <col min="3587" max="3587" width="5.21875" style="11" customWidth="1"/>
-    <col min="3588" max="3588" width="13.21875" style="11" customWidth="1"/>
-    <col min="3589" max="3589" width="13" style="11" customWidth="1"/>
-    <col min="3590" max="3590" width="9.77734375" style="11" customWidth="1"/>
-    <col min="3591" max="3591" width="11.77734375" style="11" customWidth="1"/>
-    <col min="3592" max="3595" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="3596" max="3840" width="7.5546875" style="11"/>
-    <col min="3841" max="3841" width="12.44140625" style="11" customWidth="1"/>
-    <col min="3842" max="3842" width="13.21875" style="11" customWidth="1"/>
-    <col min="3843" max="3843" width="5.21875" style="11" customWidth="1"/>
-    <col min="3844" max="3844" width="13.21875" style="11" customWidth="1"/>
-    <col min="3845" max="3845" width="13" style="11" customWidth="1"/>
-    <col min="3846" max="3846" width="9.77734375" style="11" customWidth="1"/>
-    <col min="3847" max="3847" width="11.77734375" style="11" customWidth="1"/>
-    <col min="3848" max="3851" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="3852" max="4096" width="7.5546875" style="11"/>
-    <col min="4097" max="4097" width="12.44140625" style="11" customWidth="1"/>
-    <col min="4098" max="4098" width="13.21875" style="11" customWidth="1"/>
-    <col min="4099" max="4099" width="5.21875" style="11" customWidth="1"/>
-    <col min="4100" max="4100" width="13.21875" style="11" customWidth="1"/>
-    <col min="4101" max="4101" width="13" style="11" customWidth="1"/>
-    <col min="4102" max="4102" width="9.77734375" style="11" customWidth="1"/>
-    <col min="4103" max="4103" width="11.77734375" style="11" customWidth="1"/>
-    <col min="4104" max="4107" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="4108" max="4352" width="7.5546875" style="11"/>
-    <col min="4353" max="4353" width="12.44140625" style="11" customWidth="1"/>
-    <col min="4354" max="4354" width="13.21875" style="11" customWidth="1"/>
-    <col min="4355" max="4355" width="5.21875" style="11" customWidth="1"/>
-    <col min="4356" max="4356" width="13.21875" style="11" customWidth="1"/>
-    <col min="4357" max="4357" width="13" style="11" customWidth="1"/>
-    <col min="4358" max="4358" width="9.77734375" style="11" customWidth="1"/>
-    <col min="4359" max="4359" width="11.77734375" style="11" customWidth="1"/>
-    <col min="4360" max="4363" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="4364" max="4608" width="7.5546875" style="11"/>
-    <col min="4609" max="4609" width="12.44140625" style="11" customWidth="1"/>
-    <col min="4610" max="4610" width="13.21875" style="11" customWidth="1"/>
-    <col min="4611" max="4611" width="5.21875" style="11" customWidth="1"/>
-    <col min="4612" max="4612" width="13.21875" style="11" customWidth="1"/>
-    <col min="4613" max="4613" width="13" style="11" customWidth="1"/>
-    <col min="4614" max="4614" width="9.77734375" style="11" customWidth="1"/>
-    <col min="4615" max="4615" width="11.77734375" style="11" customWidth="1"/>
-    <col min="4616" max="4619" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="4620" max="4864" width="7.5546875" style="11"/>
-    <col min="4865" max="4865" width="12.44140625" style="11" customWidth="1"/>
-    <col min="4866" max="4866" width="13.21875" style="11" customWidth="1"/>
-    <col min="4867" max="4867" width="5.21875" style="11" customWidth="1"/>
-    <col min="4868" max="4868" width="13.21875" style="11" customWidth="1"/>
-    <col min="4869" max="4869" width="13" style="11" customWidth="1"/>
-    <col min="4870" max="4870" width="9.77734375" style="11" customWidth="1"/>
-    <col min="4871" max="4871" width="11.77734375" style="11" customWidth="1"/>
-    <col min="4872" max="4875" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="4876" max="5120" width="7.5546875" style="11"/>
-    <col min="5121" max="5121" width="12.44140625" style="11" customWidth="1"/>
-    <col min="5122" max="5122" width="13.21875" style="11" customWidth="1"/>
-    <col min="5123" max="5123" width="5.21875" style="11" customWidth="1"/>
-    <col min="5124" max="5124" width="13.21875" style="11" customWidth="1"/>
-    <col min="5125" max="5125" width="13" style="11" customWidth="1"/>
-    <col min="5126" max="5126" width="9.77734375" style="11" customWidth="1"/>
-    <col min="5127" max="5127" width="11.77734375" style="11" customWidth="1"/>
-    <col min="5128" max="5131" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="5132" max="5376" width="7.5546875" style="11"/>
-    <col min="5377" max="5377" width="12.44140625" style="11" customWidth="1"/>
-    <col min="5378" max="5378" width="13.21875" style="11" customWidth="1"/>
-    <col min="5379" max="5379" width="5.21875" style="11" customWidth="1"/>
-    <col min="5380" max="5380" width="13.21875" style="11" customWidth="1"/>
-    <col min="5381" max="5381" width="13" style="11" customWidth="1"/>
-    <col min="5382" max="5382" width="9.77734375" style="11" customWidth="1"/>
-    <col min="5383" max="5383" width="11.77734375" style="11" customWidth="1"/>
-    <col min="5384" max="5387" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="5388" max="5632" width="7.5546875" style="11"/>
-    <col min="5633" max="5633" width="12.44140625" style="11" customWidth="1"/>
-    <col min="5634" max="5634" width="13.21875" style="11" customWidth="1"/>
-    <col min="5635" max="5635" width="5.21875" style="11" customWidth="1"/>
-    <col min="5636" max="5636" width="13.21875" style="11" customWidth="1"/>
-    <col min="5637" max="5637" width="13" style="11" customWidth="1"/>
-    <col min="5638" max="5638" width="9.77734375" style="11" customWidth="1"/>
-    <col min="5639" max="5639" width="11.77734375" style="11" customWidth="1"/>
-    <col min="5640" max="5643" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="5644" max="5888" width="7.5546875" style="11"/>
-    <col min="5889" max="5889" width="12.44140625" style="11" customWidth="1"/>
-    <col min="5890" max="5890" width="13.21875" style="11" customWidth="1"/>
-    <col min="5891" max="5891" width="5.21875" style="11" customWidth="1"/>
-    <col min="5892" max="5892" width="13.21875" style="11" customWidth="1"/>
-    <col min="5893" max="5893" width="13" style="11" customWidth="1"/>
-    <col min="5894" max="5894" width="9.77734375" style="11" customWidth="1"/>
-    <col min="5895" max="5895" width="11.77734375" style="11" customWidth="1"/>
-    <col min="5896" max="5899" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="5900" max="6144" width="7.5546875" style="11"/>
-    <col min="6145" max="6145" width="12.44140625" style="11" customWidth="1"/>
-    <col min="6146" max="6146" width="13.21875" style="11" customWidth="1"/>
-    <col min="6147" max="6147" width="5.21875" style="11" customWidth="1"/>
-    <col min="6148" max="6148" width="13.21875" style="11" customWidth="1"/>
-    <col min="6149" max="6149" width="13" style="11" customWidth="1"/>
-    <col min="6150" max="6150" width="9.77734375" style="11" customWidth="1"/>
-    <col min="6151" max="6151" width="11.77734375" style="11" customWidth="1"/>
-    <col min="6152" max="6155" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="6156" max="6400" width="7.5546875" style="11"/>
-    <col min="6401" max="6401" width="12.44140625" style="11" customWidth="1"/>
-    <col min="6402" max="6402" width="13.21875" style="11" customWidth="1"/>
-    <col min="6403" max="6403" width="5.21875" style="11" customWidth="1"/>
-    <col min="6404" max="6404" width="13.21875" style="11" customWidth="1"/>
-    <col min="6405" max="6405" width="13" style="11" customWidth="1"/>
-    <col min="6406" max="6406" width="9.77734375" style="11" customWidth="1"/>
-    <col min="6407" max="6407" width="11.77734375" style="11" customWidth="1"/>
-    <col min="6408" max="6411" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="6412" max="6656" width="7.5546875" style="11"/>
-    <col min="6657" max="6657" width="12.44140625" style="11" customWidth="1"/>
-    <col min="6658" max="6658" width="13.21875" style="11" customWidth="1"/>
-    <col min="6659" max="6659" width="5.21875" style="11" customWidth="1"/>
-    <col min="6660" max="6660" width="13.21875" style="11" customWidth="1"/>
-    <col min="6661" max="6661" width="13" style="11" customWidth="1"/>
-    <col min="6662" max="6662" width="9.77734375" style="11" customWidth="1"/>
-    <col min="6663" max="6663" width="11.77734375" style="11" customWidth="1"/>
-    <col min="6664" max="6667" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="6668" max="6912" width="7.5546875" style="11"/>
-    <col min="6913" max="6913" width="12.44140625" style="11" customWidth="1"/>
-    <col min="6914" max="6914" width="13.21875" style="11" customWidth="1"/>
-    <col min="6915" max="6915" width="5.21875" style="11" customWidth="1"/>
-    <col min="6916" max="6916" width="13.21875" style="11" customWidth="1"/>
-    <col min="6917" max="6917" width="13" style="11" customWidth="1"/>
-    <col min="6918" max="6918" width="9.77734375" style="11" customWidth="1"/>
-    <col min="6919" max="6919" width="11.77734375" style="11" customWidth="1"/>
-    <col min="6920" max="6923" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="6924" max="7168" width="7.5546875" style="11"/>
-    <col min="7169" max="7169" width="12.44140625" style="11" customWidth="1"/>
-    <col min="7170" max="7170" width="13.21875" style="11" customWidth="1"/>
-    <col min="7171" max="7171" width="5.21875" style="11" customWidth="1"/>
-    <col min="7172" max="7172" width="13.21875" style="11" customWidth="1"/>
-    <col min="7173" max="7173" width="13" style="11" customWidth="1"/>
-    <col min="7174" max="7174" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7175" max="7175" width="11.77734375" style="11" customWidth="1"/>
-    <col min="7176" max="7179" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="7180" max="7424" width="7.5546875" style="11"/>
-    <col min="7425" max="7425" width="12.44140625" style="11" customWidth="1"/>
-    <col min="7426" max="7426" width="13.21875" style="11" customWidth="1"/>
-    <col min="7427" max="7427" width="5.21875" style="11" customWidth="1"/>
-    <col min="7428" max="7428" width="13.21875" style="11" customWidth="1"/>
-    <col min="7429" max="7429" width="13" style="11" customWidth="1"/>
-    <col min="7430" max="7430" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7431" max="7431" width="11.77734375" style="11" customWidth="1"/>
-    <col min="7432" max="7435" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="7436" max="7680" width="7.5546875" style="11"/>
-    <col min="7681" max="7681" width="12.44140625" style="11" customWidth="1"/>
-    <col min="7682" max="7682" width="13.21875" style="11" customWidth="1"/>
-    <col min="7683" max="7683" width="5.21875" style="11" customWidth="1"/>
-    <col min="7684" max="7684" width="13.21875" style="11" customWidth="1"/>
-    <col min="7685" max="7685" width="13" style="11" customWidth="1"/>
-    <col min="7686" max="7686" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7687" max="7687" width="11.77734375" style="11" customWidth="1"/>
-    <col min="7688" max="7691" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="7692" max="7936" width="7.5546875" style="11"/>
-    <col min="7937" max="7937" width="12.44140625" style="11" customWidth="1"/>
-    <col min="7938" max="7938" width="13.21875" style="11" customWidth="1"/>
-    <col min="7939" max="7939" width="5.21875" style="11" customWidth="1"/>
-    <col min="7940" max="7940" width="13.21875" style="11" customWidth="1"/>
-    <col min="7941" max="7941" width="13" style="11" customWidth="1"/>
-    <col min="7942" max="7942" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7943" max="7943" width="11.77734375" style="11" customWidth="1"/>
-    <col min="7944" max="7947" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="7948" max="8192" width="7.5546875" style="11"/>
-    <col min="8193" max="8193" width="12.44140625" style="11" customWidth="1"/>
-    <col min="8194" max="8194" width="13.21875" style="11" customWidth="1"/>
-    <col min="8195" max="8195" width="5.21875" style="11" customWidth="1"/>
-    <col min="8196" max="8196" width="13.21875" style="11" customWidth="1"/>
-    <col min="8197" max="8197" width="13" style="11" customWidth="1"/>
-    <col min="8198" max="8198" width="9.77734375" style="11" customWidth="1"/>
-    <col min="8199" max="8199" width="11.77734375" style="11" customWidth="1"/>
-    <col min="8200" max="8203" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="8204" max="8448" width="7.5546875" style="11"/>
-    <col min="8449" max="8449" width="12.44140625" style="11" customWidth="1"/>
-    <col min="8450" max="8450" width="13.21875" style="11" customWidth="1"/>
-    <col min="8451" max="8451" width="5.21875" style="11" customWidth="1"/>
-    <col min="8452" max="8452" width="13.21875" style="11" customWidth="1"/>
-    <col min="8453" max="8453" width="13" style="11" customWidth="1"/>
-    <col min="8454" max="8454" width="9.77734375" style="11" customWidth="1"/>
-    <col min="8455" max="8455" width="11.77734375" style="11" customWidth="1"/>
-    <col min="8456" max="8459" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="8460" max="8704" width="7.5546875" style="11"/>
-    <col min="8705" max="8705" width="12.44140625" style="11" customWidth="1"/>
-    <col min="8706" max="8706" width="13.21875" style="11" customWidth="1"/>
-    <col min="8707" max="8707" width="5.21875" style="11" customWidth="1"/>
-    <col min="8708" max="8708" width="13.21875" style="11" customWidth="1"/>
-    <col min="8709" max="8709" width="13" style="11" customWidth="1"/>
-    <col min="8710" max="8710" width="9.77734375" style="11" customWidth="1"/>
-    <col min="8711" max="8711" width="11.77734375" style="11" customWidth="1"/>
-    <col min="8712" max="8715" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="8716" max="8960" width="7.5546875" style="11"/>
-    <col min="8961" max="8961" width="12.44140625" style="11" customWidth="1"/>
-    <col min="8962" max="8962" width="13.21875" style="11" customWidth="1"/>
-    <col min="8963" max="8963" width="5.21875" style="11" customWidth="1"/>
-    <col min="8964" max="8964" width="13.21875" style="11" customWidth="1"/>
-    <col min="8965" max="8965" width="13" style="11" customWidth="1"/>
-    <col min="8966" max="8966" width="9.77734375" style="11" customWidth="1"/>
-    <col min="8967" max="8967" width="11.77734375" style="11" customWidth="1"/>
-    <col min="8968" max="8971" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="8972" max="9216" width="7.5546875" style="11"/>
-    <col min="9217" max="9217" width="12.44140625" style="11" customWidth="1"/>
-    <col min="9218" max="9218" width="13.21875" style="11" customWidth="1"/>
-    <col min="9219" max="9219" width="5.21875" style="11" customWidth="1"/>
-    <col min="9220" max="9220" width="13.21875" style="11" customWidth="1"/>
-    <col min="9221" max="9221" width="13" style="11" customWidth="1"/>
-    <col min="9222" max="9222" width="9.77734375" style="11" customWidth="1"/>
-    <col min="9223" max="9223" width="11.77734375" style="11" customWidth="1"/>
-    <col min="9224" max="9227" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="9228" max="9472" width="7.5546875" style="11"/>
-    <col min="9473" max="9473" width="12.44140625" style="11" customWidth="1"/>
-    <col min="9474" max="9474" width="13.21875" style="11" customWidth="1"/>
-    <col min="9475" max="9475" width="5.21875" style="11" customWidth="1"/>
-    <col min="9476" max="9476" width="13.21875" style="11" customWidth="1"/>
-    <col min="9477" max="9477" width="13" style="11" customWidth="1"/>
-    <col min="9478" max="9478" width="9.77734375" style="11" customWidth="1"/>
-    <col min="9479" max="9479" width="11.77734375" style="11" customWidth="1"/>
-    <col min="9480" max="9483" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="9484" max="9728" width="7.5546875" style="11"/>
-    <col min="9729" max="9729" width="12.44140625" style="11" customWidth="1"/>
-    <col min="9730" max="9730" width="13.21875" style="11" customWidth="1"/>
-    <col min="9731" max="9731" width="5.21875" style="11" customWidth="1"/>
-    <col min="9732" max="9732" width="13.21875" style="11" customWidth="1"/>
-    <col min="9733" max="9733" width="13" style="11" customWidth="1"/>
-    <col min="9734" max="9734" width="9.77734375" style="11" customWidth="1"/>
-    <col min="9735" max="9735" width="11.77734375" style="11" customWidth="1"/>
-    <col min="9736" max="9739" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="9740" max="9984" width="7.5546875" style="11"/>
-    <col min="9985" max="9985" width="12.44140625" style="11" customWidth="1"/>
-    <col min="9986" max="9986" width="13.21875" style="11" customWidth="1"/>
-    <col min="9987" max="9987" width="5.21875" style="11" customWidth="1"/>
-    <col min="9988" max="9988" width="13.21875" style="11" customWidth="1"/>
-    <col min="9989" max="9989" width="13" style="11" customWidth="1"/>
-    <col min="9990" max="9990" width="9.77734375" style="11" customWidth="1"/>
-    <col min="9991" max="9991" width="11.77734375" style="11" customWidth="1"/>
-    <col min="9992" max="9995" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="9996" max="10240" width="7.5546875" style="11"/>
-    <col min="10241" max="10241" width="12.44140625" style="11" customWidth="1"/>
-    <col min="10242" max="10242" width="13.21875" style="11" customWidth="1"/>
-    <col min="10243" max="10243" width="5.21875" style="11" customWidth="1"/>
-    <col min="10244" max="10244" width="13.21875" style="11" customWidth="1"/>
-    <col min="10245" max="10245" width="13" style="11" customWidth="1"/>
-    <col min="10246" max="10246" width="9.77734375" style="11" customWidth="1"/>
-    <col min="10247" max="10247" width="11.77734375" style="11" customWidth="1"/>
-    <col min="10248" max="10251" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="10252" max="10496" width="7.5546875" style="11"/>
-    <col min="10497" max="10497" width="12.44140625" style="11" customWidth="1"/>
-    <col min="10498" max="10498" width="13.21875" style="11" customWidth="1"/>
-    <col min="10499" max="10499" width="5.21875" style="11" customWidth="1"/>
-    <col min="10500" max="10500" width="13.21875" style="11" customWidth="1"/>
-    <col min="10501" max="10501" width="13" style="11" customWidth="1"/>
-    <col min="10502" max="10502" width="9.77734375" style="11" customWidth="1"/>
-    <col min="10503" max="10503" width="11.77734375" style="11" customWidth="1"/>
-    <col min="10504" max="10507" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="10508" max="10752" width="7.5546875" style="11"/>
-    <col min="10753" max="10753" width="12.44140625" style="11" customWidth="1"/>
-    <col min="10754" max="10754" width="13.21875" style="11" customWidth="1"/>
-    <col min="10755" max="10755" width="5.21875" style="11" customWidth="1"/>
-    <col min="10756" max="10756" width="13.21875" style="11" customWidth="1"/>
-    <col min="10757" max="10757" width="13" style="11" customWidth="1"/>
-    <col min="10758" max="10758" width="9.77734375" style="11" customWidth="1"/>
-    <col min="10759" max="10759" width="11.77734375" style="11" customWidth="1"/>
-    <col min="10760" max="10763" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="10764" max="11008" width="7.5546875" style="11"/>
-    <col min="11009" max="11009" width="12.44140625" style="11" customWidth="1"/>
-    <col min="11010" max="11010" width="13.21875" style="11" customWidth="1"/>
-    <col min="11011" max="11011" width="5.21875" style="11" customWidth="1"/>
-    <col min="11012" max="11012" width="13.21875" style="11" customWidth="1"/>
-    <col min="11013" max="11013" width="13" style="11" customWidth="1"/>
-    <col min="11014" max="11014" width="9.77734375" style="11" customWidth="1"/>
-    <col min="11015" max="11015" width="11.77734375" style="11" customWidth="1"/>
-    <col min="11016" max="11019" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="11020" max="11264" width="7.5546875" style="11"/>
-    <col min="11265" max="11265" width="12.44140625" style="11" customWidth="1"/>
-    <col min="11266" max="11266" width="13.21875" style="11" customWidth="1"/>
-    <col min="11267" max="11267" width="5.21875" style="11" customWidth="1"/>
-    <col min="11268" max="11268" width="13.21875" style="11" customWidth="1"/>
-    <col min="11269" max="11269" width="13" style="11" customWidth="1"/>
-    <col min="11270" max="11270" width="9.77734375" style="11" customWidth="1"/>
-    <col min="11271" max="11271" width="11.77734375" style="11" customWidth="1"/>
-    <col min="11272" max="11275" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="11276" max="11520" width="7.5546875" style="11"/>
-    <col min="11521" max="11521" width="12.44140625" style="11" customWidth="1"/>
-    <col min="11522" max="11522" width="13.21875" style="11" customWidth="1"/>
-    <col min="11523" max="11523" width="5.21875" style="11" customWidth="1"/>
-    <col min="11524" max="11524" width="13.21875" style="11" customWidth="1"/>
-    <col min="11525" max="11525" width="13" style="11" customWidth="1"/>
-    <col min="11526" max="11526" width="9.77734375" style="11" customWidth="1"/>
-    <col min="11527" max="11527" width="11.77734375" style="11" customWidth="1"/>
-    <col min="11528" max="11531" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="11532" max="11776" width="7.5546875" style="11"/>
-    <col min="11777" max="11777" width="12.44140625" style="11" customWidth="1"/>
-    <col min="11778" max="11778" width="13.21875" style="11" customWidth="1"/>
-    <col min="11779" max="11779" width="5.21875" style="11" customWidth="1"/>
-    <col min="11780" max="11780" width="13.21875" style="11" customWidth="1"/>
-    <col min="11781" max="11781" width="13" style="11" customWidth="1"/>
-    <col min="11782" max="11782" width="9.77734375" style="11" customWidth="1"/>
-    <col min="11783" max="11783" width="11.77734375" style="11" customWidth="1"/>
-    <col min="11784" max="11787" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="11788" max="12032" width="7.5546875" style="11"/>
-    <col min="12033" max="12033" width="12.44140625" style="11" customWidth="1"/>
-    <col min="12034" max="12034" width="13.21875" style="11" customWidth="1"/>
-    <col min="12035" max="12035" width="5.21875" style="11" customWidth="1"/>
-    <col min="12036" max="12036" width="13.21875" style="11" customWidth="1"/>
-    <col min="12037" max="12037" width="13" style="11" customWidth="1"/>
-    <col min="12038" max="12038" width="9.77734375" style="11" customWidth="1"/>
-    <col min="12039" max="12039" width="11.77734375" style="11" customWidth="1"/>
-    <col min="12040" max="12043" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="12044" max="12288" width="7.5546875" style="11"/>
-    <col min="12289" max="12289" width="12.44140625" style="11" customWidth="1"/>
-    <col min="12290" max="12290" width="13.21875" style="11" customWidth="1"/>
-    <col min="12291" max="12291" width="5.21875" style="11" customWidth="1"/>
-    <col min="12292" max="12292" width="13.21875" style="11" customWidth="1"/>
-    <col min="12293" max="12293" width="13" style="11" customWidth="1"/>
-    <col min="12294" max="12294" width="9.77734375" style="11" customWidth="1"/>
-    <col min="12295" max="12295" width="11.77734375" style="11" customWidth="1"/>
-    <col min="12296" max="12299" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="12300" max="12544" width="7.5546875" style="11"/>
-    <col min="12545" max="12545" width="12.44140625" style="11" customWidth="1"/>
-    <col min="12546" max="12546" width="13.21875" style="11" customWidth="1"/>
-    <col min="12547" max="12547" width="5.21875" style="11" customWidth="1"/>
-    <col min="12548" max="12548" width="13.21875" style="11" customWidth="1"/>
-    <col min="12549" max="12549" width="13" style="11" customWidth="1"/>
-    <col min="12550" max="12550" width="9.77734375" style="11" customWidth="1"/>
-    <col min="12551" max="12551" width="11.77734375" style="11" customWidth="1"/>
-    <col min="12552" max="12555" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="12556" max="12800" width="7.5546875" style="11"/>
-    <col min="12801" max="12801" width="12.44140625" style="11" customWidth="1"/>
-    <col min="12802" max="12802" width="13.21875" style="11" customWidth="1"/>
-    <col min="12803" max="12803" width="5.21875" style="11" customWidth="1"/>
-    <col min="12804" max="12804" width="13.21875" style="11" customWidth="1"/>
-    <col min="12805" max="12805" width="13" style="11" customWidth="1"/>
-    <col min="12806" max="12806" width="9.77734375" style="11" customWidth="1"/>
-    <col min="12807" max="12807" width="11.77734375" style="11" customWidth="1"/>
-    <col min="12808" max="12811" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="12812" max="13056" width="7.5546875" style="11"/>
-    <col min="13057" max="13057" width="12.44140625" style="11" customWidth="1"/>
-    <col min="13058" max="13058" width="13.21875" style="11" customWidth="1"/>
-    <col min="13059" max="13059" width="5.21875" style="11" customWidth="1"/>
-    <col min="13060" max="13060" width="13.21875" style="11" customWidth="1"/>
-    <col min="13061" max="13061" width="13" style="11" customWidth="1"/>
-    <col min="13062" max="13062" width="9.77734375" style="11" customWidth="1"/>
-    <col min="13063" max="13063" width="11.77734375" style="11" customWidth="1"/>
-    <col min="13064" max="13067" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="13068" max="13312" width="7.5546875" style="11"/>
-    <col min="13313" max="13313" width="12.44140625" style="11" customWidth="1"/>
-    <col min="13314" max="13314" width="13.21875" style="11" customWidth="1"/>
-    <col min="13315" max="13315" width="5.21875" style="11" customWidth="1"/>
-    <col min="13316" max="13316" width="13.21875" style="11" customWidth="1"/>
-    <col min="13317" max="13317" width="13" style="11" customWidth="1"/>
-    <col min="13318" max="13318" width="9.77734375" style="11" customWidth="1"/>
-    <col min="13319" max="13319" width="11.77734375" style="11" customWidth="1"/>
-    <col min="13320" max="13323" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="13324" max="13568" width="7.5546875" style="11"/>
-    <col min="13569" max="13569" width="12.44140625" style="11" customWidth="1"/>
-    <col min="13570" max="13570" width="13.21875" style="11" customWidth="1"/>
-    <col min="13571" max="13571" width="5.21875" style="11" customWidth="1"/>
-    <col min="13572" max="13572" width="13.21875" style="11" customWidth="1"/>
-    <col min="13573" max="13573" width="13" style="11" customWidth="1"/>
-    <col min="13574" max="13574" width="9.77734375" style="11" customWidth="1"/>
-    <col min="13575" max="13575" width="11.77734375" style="11" customWidth="1"/>
-    <col min="13576" max="13579" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="13580" max="13824" width="7.5546875" style="11"/>
-    <col min="13825" max="13825" width="12.44140625" style="11" customWidth="1"/>
-    <col min="13826" max="13826" width="13.21875" style="11" customWidth="1"/>
-    <col min="13827" max="13827" width="5.21875" style="11" customWidth="1"/>
-    <col min="13828" max="13828" width="13.21875" style="11" customWidth="1"/>
-    <col min="13829" max="13829" width="13" style="11" customWidth="1"/>
-    <col min="13830" max="13830" width="9.77734375" style="11" customWidth="1"/>
-    <col min="13831" max="13831" width="11.77734375" style="11" customWidth="1"/>
-    <col min="13832" max="13835" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="13836" max="14080" width="7.5546875" style="11"/>
-    <col min="14081" max="14081" width="12.44140625" style="11" customWidth="1"/>
-    <col min="14082" max="14082" width="13.21875" style="11" customWidth="1"/>
-    <col min="14083" max="14083" width="5.21875" style="11" customWidth="1"/>
-    <col min="14084" max="14084" width="13.21875" style="11" customWidth="1"/>
-    <col min="14085" max="14085" width="13" style="11" customWidth="1"/>
-    <col min="14086" max="14086" width="9.77734375" style="11" customWidth="1"/>
-    <col min="14087" max="14087" width="11.77734375" style="11" customWidth="1"/>
-    <col min="14088" max="14091" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="14092" max="14336" width="7.5546875" style="11"/>
-    <col min="14337" max="14337" width="12.44140625" style="11" customWidth="1"/>
-    <col min="14338" max="14338" width="13.21875" style="11" customWidth="1"/>
-    <col min="14339" max="14339" width="5.21875" style="11" customWidth="1"/>
-    <col min="14340" max="14340" width="13.21875" style="11" customWidth="1"/>
-    <col min="14341" max="14341" width="13" style="11" customWidth="1"/>
-    <col min="14342" max="14342" width="9.77734375" style="11" customWidth="1"/>
-    <col min="14343" max="14343" width="11.77734375" style="11" customWidth="1"/>
-    <col min="14344" max="14347" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="14348" max="14592" width="7.5546875" style="11"/>
-    <col min="14593" max="14593" width="12.44140625" style="11" customWidth="1"/>
-    <col min="14594" max="14594" width="13.21875" style="11" customWidth="1"/>
-    <col min="14595" max="14595" width="5.21875" style="11" customWidth="1"/>
-    <col min="14596" max="14596" width="13.21875" style="11" customWidth="1"/>
-    <col min="14597" max="14597" width="13" style="11" customWidth="1"/>
-    <col min="14598" max="14598" width="9.77734375" style="11" customWidth="1"/>
-    <col min="14599" max="14599" width="11.77734375" style="11" customWidth="1"/>
-    <col min="14600" max="14603" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="14604" max="14848" width="7.5546875" style="11"/>
-    <col min="14849" max="14849" width="12.44140625" style="11" customWidth="1"/>
-    <col min="14850" max="14850" width="13.21875" style="11" customWidth="1"/>
-    <col min="14851" max="14851" width="5.21875" style="11" customWidth="1"/>
-    <col min="14852" max="14852" width="13.21875" style="11" customWidth="1"/>
-    <col min="14853" max="14853" width="13" style="11" customWidth="1"/>
-    <col min="14854" max="14854" width="9.77734375" style="11" customWidth="1"/>
-    <col min="14855" max="14855" width="11.77734375" style="11" customWidth="1"/>
-    <col min="14856" max="14859" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="14860" max="15104" width="7.5546875" style="11"/>
-    <col min="15105" max="15105" width="12.44140625" style="11" customWidth="1"/>
-    <col min="15106" max="15106" width="13.21875" style="11" customWidth="1"/>
-    <col min="15107" max="15107" width="5.21875" style="11" customWidth="1"/>
-    <col min="15108" max="15108" width="13.21875" style="11" customWidth="1"/>
-    <col min="15109" max="15109" width="13" style="11" customWidth="1"/>
-    <col min="15110" max="15110" width="9.77734375" style="11" customWidth="1"/>
-    <col min="15111" max="15111" width="11.77734375" style="11" customWidth="1"/>
-    <col min="15112" max="15115" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="15116" max="15360" width="7.5546875" style="11"/>
-    <col min="15361" max="15361" width="12.44140625" style="11" customWidth="1"/>
-    <col min="15362" max="15362" width="13.21875" style="11" customWidth="1"/>
-    <col min="15363" max="15363" width="5.21875" style="11" customWidth="1"/>
-    <col min="15364" max="15364" width="13.21875" style="11" customWidth="1"/>
-    <col min="15365" max="15365" width="13" style="11" customWidth="1"/>
-    <col min="15366" max="15366" width="9.77734375" style="11" customWidth="1"/>
-    <col min="15367" max="15367" width="11.77734375" style="11" customWidth="1"/>
-    <col min="15368" max="15371" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="15372" max="15616" width="7.5546875" style="11"/>
-    <col min="15617" max="15617" width="12.44140625" style="11" customWidth="1"/>
-    <col min="15618" max="15618" width="13.21875" style="11" customWidth="1"/>
-    <col min="15619" max="15619" width="5.21875" style="11" customWidth="1"/>
-    <col min="15620" max="15620" width="13.21875" style="11" customWidth="1"/>
-    <col min="15621" max="15621" width="13" style="11" customWidth="1"/>
-    <col min="15622" max="15622" width="9.77734375" style="11" customWidth="1"/>
-    <col min="15623" max="15623" width="11.77734375" style="11" customWidth="1"/>
-    <col min="15624" max="15627" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="15628" max="15872" width="7.5546875" style="11"/>
-    <col min="15873" max="15873" width="12.44140625" style="11" customWidth="1"/>
-    <col min="15874" max="15874" width="13.21875" style="11" customWidth="1"/>
-    <col min="15875" max="15875" width="5.21875" style="11" customWidth="1"/>
-    <col min="15876" max="15876" width="13.21875" style="11" customWidth="1"/>
-    <col min="15877" max="15877" width="13" style="11" customWidth="1"/>
-    <col min="15878" max="15878" width="9.77734375" style="11" customWidth="1"/>
-    <col min="15879" max="15879" width="11.77734375" style="11" customWidth="1"/>
-    <col min="15880" max="15883" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="15884" max="16128" width="7.5546875" style="11"/>
-    <col min="16129" max="16129" width="12.44140625" style="11" customWidth="1"/>
-    <col min="16130" max="16130" width="13.21875" style="11" customWidth="1"/>
-    <col min="16131" max="16131" width="5.21875" style="11" customWidth="1"/>
-    <col min="16132" max="16132" width="13.21875" style="11" customWidth="1"/>
-    <col min="16133" max="16133" width="13" style="11" customWidth="1"/>
-    <col min="16134" max="16134" width="9.77734375" style="11" customWidth="1"/>
-    <col min="16135" max="16135" width="11.77734375" style="11" customWidth="1"/>
-    <col min="16136" max="16139" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="16140" max="16384" width="7.5546875" style="11"/>
+    <col min="12" max="253" width="7.5546875" style="11"/>
+    <col min="254" max="254" width="12.44140625" style="11" customWidth="1"/>
+    <col min="255" max="255" width="13.21875" style="11" customWidth="1"/>
+    <col min="256" max="256" width="5.21875" style="11" customWidth="1"/>
+    <col min="257" max="257" width="13.21875" style="11" customWidth="1"/>
+    <col min="258" max="258" width="13" style="11" customWidth="1"/>
+    <col min="259" max="259" width="9.77734375" style="11" customWidth="1"/>
+    <col min="260" max="260" width="11.77734375" style="11" customWidth="1"/>
+    <col min="261" max="264" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="265" max="509" width="7.5546875" style="11"/>
+    <col min="510" max="510" width="12.44140625" style="11" customWidth="1"/>
+    <col min="511" max="511" width="13.21875" style="11" customWidth="1"/>
+    <col min="512" max="512" width="5.21875" style="11" customWidth="1"/>
+    <col min="513" max="513" width="13.21875" style="11" customWidth="1"/>
+    <col min="514" max="514" width="13" style="11" customWidth="1"/>
+    <col min="515" max="515" width="9.77734375" style="11" customWidth="1"/>
+    <col min="516" max="516" width="11.77734375" style="11" customWidth="1"/>
+    <col min="517" max="520" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="521" max="765" width="7.5546875" style="11"/>
+    <col min="766" max="766" width="12.44140625" style="11" customWidth="1"/>
+    <col min="767" max="767" width="13.21875" style="11" customWidth="1"/>
+    <col min="768" max="768" width="5.21875" style="11" customWidth="1"/>
+    <col min="769" max="769" width="13.21875" style="11" customWidth="1"/>
+    <col min="770" max="770" width="13" style="11" customWidth="1"/>
+    <col min="771" max="771" width="9.77734375" style="11" customWidth="1"/>
+    <col min="772" max="772" width="11.77734375" style="11" customWidth="1"/>
+    <col min="773" max="776" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="777" max="1021" width="7.5546875" style="11"/>
+    <col min="1022" max="1022" width="12.44140625" style="11" customWidth="1"/>
+    <col min="1023" max="1023" width="13.21875" style="11" customWidth="1"/>
+    <col min="1024" max="1024" width="5.21875" style="11" customWidth="1"/>
+    <col min="1025" max="1025" width="13.21875" style="11" customWidth="1"/>
+    <col min="1026" max="1026" width="13" style="11" customWidth="1"/>
+    <col min="1027" max="1027" width="9.77734375" style="11" customWidth="1"/>
+    <col min="1028" max="1028" width="11.77734375" style="11" customWidth="1"/>
+    <col min="1029" max="1032" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="1033" max="1277" width="7.5546875" style="11"/>
+    <col min="1278" max="1278" width="12.44140625" style="11" customWidth="1"/>
+    <col min="1279" max="1279" width="13.21875" style="11" customWidth="1"/>
+    <col min="1280" max="1280" width="5.21875" style="11" customWidth="1"/>
+    <col min="1281" max="1281" width="13.21875" style="11" customWidth="1"/>
+    <col min="1282" max="1282" width="13" style="11" customWidth="1"/>
+    <col min="1283" max="1283" width="9.77734375" style="11" customWidth="1"/>
+    <col min="1284" max="1284" width="11.77734375" style="11" customWidth="1"/>
+    <col min="1285" max="1288" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="1289" max="1533" width="7.5546875" style="11"/>
+    <col min="1534" max="1534" width="12.44140625" style="11" customWidth="1"/>
+    <col min="1535" max="1535" width="13.21875" style="11" customWidth="1"/>
+    <col min="1536" max="1536" width="5.21875" style="11" customWidth="1"/>
+    <col min="1537" max="1537" width="13.21875" style="11" customWidth="1"/>
+    <col min="1538" max="1538" width="13" style="11" customWidth="1"/>
+    <col min="1539" max="1539" width="9.77734375" style="11" customWidth="1"/>
+    <col min="1540" max="1540" width="11.77734375" style="11" customWidth="1"/>
+    <col min="1541" max="1544" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="1545" max="1789" width="7.5546875" style="11"/>
+    <col min="1790" max="1790" width="12.44140625" style="11" customWidth="1"/>
+    <col min="1791" max="1791" width="13.21875" style="11" customWidth="1"/>
+    <col min="1792" max="1792" width="5.21875" style="11" customWidth="1"/>
+    <col min="1793" max="1793" width="13.21875" style="11" customWidth="1"/>
+    <col min="1794" max="1794" width="13" style="11" customWidth="1"/>
+    <col min="1795" max="1795" width="9.77734375" style="11" customWidth="1"/>
+    <col min="1796" max="1796" width="11.77734375" style="11" customWidth="1"/>
+    <col min="1797" max="1800" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="1801" max="2045" width="7.5546875" style="11"/>
+    <col min="2046" max="2046" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2047" max="2047" width="13.21875" style="11" customWidth="1"/>
+    <col min="2048" max="2048" width="5.21875" style="11" customWidth="1"/>
+    <col min="2049" max="2049" width="13.21875" style="11" customWidth="1"/>
+    <col min="2050" max="2050" width="13" style="11" customWidth="1"/>
+    <col min="2051" max="2051" width="9.77734375" style="11" customWidth="1"/>
+    <col min="2052" max="2052" width="11.77734375" style="11" customWidth="1"/>
+    <col min="2053" max="2056" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="2057" max="2301" width="7.5546875" style="11"/>
+    <col min="2302" max="2302" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2303" max="2303" width="13.21875" style="11" customWidth="1"/>
+    <col min="2304" max="2304" width="5.21875" style="11" customWidth="1"/>
+    <col min="2305" max="2305" width="13.21875" style="11" customWidth="1"/>
+    <col min="2306" max="2306" width="13" style="11" customWidth="1"/>
+    <col min="2307" max="2307" width="9.77734375" style="11" customWidth="1"/>
+    <col min="2308" max="2308" width="11.77734375" style="11" customWidth="1"/>
+    <col min="2309" max="2312" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="2313" max="2557" width="7.5546875" style="11"/>
+    <col min="2558" max="2558" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2559" max="2559" width="13.21875" style="11" customWidth="1"/>
+    <col min="2560" max="2560" width="5.21875" style="11" customWidth="1"/>
+    <col min="2561" max="2561" width="13.21875" style="11" customWidth="1"/>
+    <col min="2562" max="2562" width="13" style="11" customWidth="1"/>
+    <col min="2563" max="2563" width="9.77734375" style="11" customWidth="1"/>
+    <col min="2564" max="2564" width="11.77734375" style="11" customWidth="1"/>
+    <col min="2565" max="2568" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="2569" max="2813" width="7.5546875" style="11"/>
+    <col min="2814" max="2814" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2815" max="2815" width="13.21875" style="11" customWidth="1"/>
+    <col min="2816" max="2816" width="5.21875" style="11" customWidth="1"/>
+    <col min="2817" max="2817" width="13.21875" style="11" customWidth="1"/>
+    <col min="2818" max="2818" width="13" style="11" customWidth="1"/>
+    <col min="2819" max="2819" width="9.77734375" style="11" customWidth="1"/>
+    <col min="2820" max="2820" width="11.77734375" style="11" customWidth="1"/>
+    <col min="2821" max="2824" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="2825" max="3069" width="7.5546875" style="11"/>
+    <col min="3070" max="3070" width="12.44140625" style="11" customWidth="1"/>
+    <col min="3071" max="3071" width="13.21875" style="11" customWidth="1"/>
+    <col min="3072" max="3072" width="5.21875" style="11" customWidth="1"/>
+    <col min="3073" max="3073" width="13.21875" style="11" customWidth="1"/>
+    <col min="3074" max="3074" width="13" style="11" customWidth="1"/>
+    <col min="3075" max="3075" width="9.77734375" style="11" customWidth="1"/>
+    <col min="3076" max="3076" width="11.77734375" style="11" customWidth="1"/>
+    <col min="3077" max="3080" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="3081" max="3325" width="7.5546875" style="11"/>
+    <col min="3326" max="3326" width="12.44140625" style="11" customWidth="1"/>
+    <col min="3327" max="3327" width="13.21875" style="11" customWidth="1"/>
+    <col min="3328" max="3328" width="5.21875" style="11" customWidth="1"/>
+    <col min="3329" max="3329" width="13.21875" style="11" customWidth="1"/>
+    <col min="3330" max="3330" width="13" style="11" customWidth="1"/>
+    <col min="3331" max="3331" width="9.77734375" style="11" customWidth="1"/>
+    <col min="3332" max="3332" width="11.77734375" style="11" customWidth="1"/>
+    <col min="3333" max="3336" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="3337" max="3581" width="7.5546875" style="11"/>
+    <col min="3582" max="3582" width="12.44140625" style="11" customWidth="1"/>
+    <col min="3583" max="3583" width="13.21875" style="11" customWidth="1"/>
+    <col min="3584" max="3584" width="5.21875" style="11" customWidth="1"/>
+    <col min="3585" max="3585" width="13.21875" style="11" customWidth="1"/>
+    <col min="3586" max="3586" width="13" style="11" customWidth="1"/>
+    <col min="3587" max="3587" width="9.77734375" style="11" customWidth="1"/>
+    <col min="3588" max="3588" width="11.77734375" style="11" customWidth="1"/>
+    <col min="3589" max="3592" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="3593" max="3837" width="7.5546875" style="11"/>
+    <col min="3838" max="3838" width="12.44140625" style="11" customWidth="1"/>
+    <col min="3839" max="3839" width="13.21875" style="11" customWidth="1"/>
+    <col min="3840" max="3840" width="5.21875" style="11" customWidth="1"/>
+    <col min="3841" max="3841" width="13.21875" style="11" customWidth="1"/>
+    <col min="3842" max="3842" width="13" style="11" customWidth="1"/>
+    <col min="3843" max="3843" width="9.77734375" style="11" customWidth="1"/>
+    <col min="3844" max="3844" width="11.77734375" style="11" customWidth="1"/>
+    <col min="3845" max="3848" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="3849" max="4093" width="7.5546875" style="11"/>
+    <col min="4094" max="4094" width="12.44140625" style="11" customWidth="1"/>
+    <col min="4095" max="4095" width="13.21875" style="11" customWidth="1"/>
+    <col min="4096" max="4096" width="5.21875" style="11" customWidth="1"/>
+    <col min="4097" max="4097" width="13.21875" style="11" customWidth="1"/>
+    <col min="4098" max="4098" width="13" style="11" customWidth="1"/>
+    <col min="4099" max="4099" width="9.77734375" style="11" customWidth="1"/>
+    <col min="4100" max="4100" width="11.77734375" style="11" customWidth="1"/>
+    <col min="4101" max="4104" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="4105" max="4349" width="7.5546875" style="11"/>
+    <col min="4350" max="4350" width="12.44140625" style="11" customWidth="1"/>
+    <col min="4351" max="4351" width="13.21875" style="11" customWidth="1"/>
+    <col min="4352" max="4352" width="5.21875" style="11" customWidth="1"/>
+    <col min="4353" max="4353" width="13.21875" style="11" customWidth="1"/>
+    <col min="4354" max="4354" width="13" style="11" customWidth="1"/>
+    <col min="4355" max="4355" width="9.77734375" style="11" customWidth="1"/>
+    <col min="4356" max="4356" width="11.77734375" style="11" customWidth="1"/>
+    <col min="4357" max="4360" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="4361" max="4605" width="7.5546875" style="11"/>
+    <col min="4606" max="4606" width="12.44140625" style="11" customWidth="1"/>
+    <col min="4607" max="4607" width="13.21875" style="11" customWidth="1"/>
+    <col min="4608" max="4608" width="5.21875" style="11" customWidth="1"/>
+    <col min="4609" max="4609" width="13.21875" style="11" customWidth="1"/>
+    <col min="4610" max="4610" width="13" style="11" customWidth="1"/>
+    <col min="4611" max="4611" width="9.77734375" style="11" customWidth="1"/>
+    <col min="4612" max="4612" width="11.77734375" style="11" customWidth="1"/>
+    <col min="4613" max="4616" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="4617" max="4861" width="7.5546875" style="11"/>
+    <col min="4862" max="4862" width="12.44140625" style="11" customWidth="1"/>
+    <col min="4863" max="4863" width="13.21875" style="11" customWidth="1"/>
+    <col min="4864" max="4864" width="5.21875" style="11" customWidth="1"/>
+    <col min="4865" max="4865" width="13.21875" style="11" customWidth="1"/>
+    <col min="4866" max="4866" width="13" style="11" customWidth="1"/>
+    <col min="4867" max="4867" width="9.77734375" style="11" customWidth="1"/>
+    <col min="4868" max="4868" width="11.77734375" style="11" customWidth="1"/>
+    <col min="4869" max="4872" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="4873" max="5117" width="7.5546875" style="11"/>
+    <col min="5118" max="5118" width="12.44140625" style="11" customWidth="1"/>
+    <col min="5119" max="5119" width="13.21875" style="11" customWidth="1"/>
+    <col min="5120" max="5120" width="5.21875" style="11" customWidth="1"/>
+    <col min="5121" max="5121" width="13.21875" style="11" customWidth="1"/>
+    <col min="5122" max="5122" width="13" style="11" customWidth="1"/>
+    <col min="5123" max="5123" width="9.77734375" style="11" customWidth="1"/>
+    <col min="5124" max="5124" width="11.77734375" style="11" customWidth="1"/>
+    <col min="5125" max="5128" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="5129" max="5373" width="7.5546875" style="11"/>
+    <col min="5374" max="5374" width="12.44140625" style="11" customWidth="1"/>
+    <col min="5375" max="5375" width="13.21875" style="11" customWidth="1"/>
+    <col min="5376" max="5376" width="5.21875" style="11" customWidth="1"/>
+    <col min="5377" max="5377" width="13.21875" style="11" customWidth="1"/>
+    <col min="5378" max="5378" width="13" style="11" customWidth="1"/>
+    <col min="5379" max="5379" width="9.77734375" style="11" customWidth="1"/>
+    <col min="5380" max="5380" width="11.77734375" style="11" customWidth="1"/>
+    <col min="5381" max="5384" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="5385" max="5629" width="7.5546875" style="11"/>
+    <col min="5630" max="5630" width="12.44140625" style="11" customWidth="1"/>
+    <col min="5631" max="5631" width="13.21875" style="11" customWidth="1"/>
+    <col min="5632" max="5632" width="5.21875" style="11" customWidth="1"/>
+    <col min="5633" max="5633" width="13.21875" style="11" customWidth="1"/>
+    <col min="5634" max="5634" width="13" style="11" customWidth="1"/>
+    <col min="5635" max="5635" width="9.77734375" style="11" customWidth="1"/>
+    <col min="5636" max="5636" width="11.77734375" style="11" customWidth="1"/>
+    <col min="5637" max="5640" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="5641" max="5885" width="7.5546875" style="11"/>
+    <col min="5886" max="5886" width="12.44140625" style="11" customWidth="1"/>
+    <col min="5887" max="5887" width="13.21875" style="11" customWidth="1"/>
+    <col min="5888" max="5888" width="5.21875" style="11" customWidth="1"/>
+    <col min="5889" max="5889" width="13.21875" style="11" customWidth="1"/>
+    <col min="5890" max="5890" width="13" style="11" customWidth="1"/>
+    <col min="5891" max="5891" width="9.77734375" style="11" customWidth="1"/>
+    <col min="5892" max="5892" width="11.77734375" style="11" customWidth="1"/>
+    <col min="5893" max="5896" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="5897" max="6141" width="7.5546875" style="11"/>
+    <col min="6142" max="6142" width="12.44140625" style="11" customWidth="1"/>
+    <col min="6143" max="6143" width="13.21875" style="11" customWidth="1"/>
+    <col min="6144" max="6144" width="5.21875" style="11" customWidth="1"/>
+    <col min="6145" max="6145" width="13.21875" style="11" customWidth="1"/>
+    <col min="6146" max="6146" width="13" style="11" customWidth="1"/>
+    <col min="6147" max="6147" width="9.77734375" style="11" customWidth="1"/>
+    <col min="6148" max="6148" width="11.77734375" style="11" customWidth="1"/>
+    <col min="6149" max="6152" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="6153" max="6397" width="7.5546875" style="11"/>
+    <col min="6398" max="6398" width="12.44140625" style="11" customWidth="1"/>
+    <col min="6399" max="6399" width="13.21875" style="11" customWidth="1"/>
+    <col min="6400" max="6400" width="5.21875" style="11" customWidth="1"/>
+    <col min="6401" max="6401" width="13.21875" style="11" customWidth="1"/>
+    <col min="6402" max="6402" width="13" style="11" customWidth="1"/>
+    <col min="6403" max="6403" width="9.77734375" style="11" customWidth="1"/>
+    <col min="6404" max="6404" width="11.77734375" style="11" customWidth="1"/>
+    <col min="6405" max="6408" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="6409" max="6653" width="7.5546875" style="11"/>
+    <col min="6654" max="6654" width="12.44140625" style="11" customWidth="1"/>
+    <col min="6655" max="6655" width="13.21875" style="11" customWidth="1"/>
+    <col min="6656" max="6656" width="5.21875" style="11" customWidth="1"/>
+    <col min="6657" max="6657" width="13.21875" style="11" customWidth="1"/>
+    <col min="6658" max="6658" width="13" style="11" customWidth="1"/>
+    <col min="6659" max="6659" width="9.77734375" style="11" customWidth="1"/>
+    <col min="6660" max="6660" width="11.77734375" style="11" customWidth="1"/>
+    <col min="6661" max="6664" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="6665" max="6909" width="7.5546875" style="11"/>
+    <col min="6910" max="6910" width="12.44140625" style="11" customWidth="1"/>
+    <col min="6911" max="6911" width="13.21875" style="11" customWidth="1"/>
+    <col min="6912" max="6912" width="5.21875" style="11" customWidth="1"/>
+    <col min="6913" max="6913" width="13.21875" style="11" customWidth="1"/>
+    <col min="6914" max="6914" width="13" style="11" customWidth="1"/>
+    <col min="6915" max="6915" width="9.77734375" style="11" customWidth="1"/>
+    <col min="6916" max="6916" width="11.77734375" style="11" customWidth="1"/>
+    <col min="6917" max="6920" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="6921" max="7165" width="7.5546875" style="11"/>
+    <col min="7166" max="7166" width="12.44140625" style="11" customWidth="1"/>
+    <col min="7167" max="7167" width="13.21875" style="11" customWidth="1"/>
+    <col min="7168" max="7168" width="5.21875" style="11" customWidth="1"/>
+    <col min="7169" max="7169" width="13.21875" style="11" customWidth="1"/>
+    <col min="7170" max="7170" width="13" style="11" customWidth="1"/>
+    <col min="7171" max="7171" width="9.77734375" style="11" customWidth="1"/>
+    <col min="7172" max="7172" width="11.77734375" style="11" customWidth="1"/>
+    <col min="7173" max="7176" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="7177" max="7421" width="7.5546875" style="11"/>
+    <col min="7422" max="7422" width="12.44140625" style="11" customWidth="1"/>
+    <col min="7423" max="7423" width="13.21875" style="11" customWidth="1"/>
+    <col min="7424" max="7424" width="5.21875" style="11" customWidth="1"/>
+    <col min="7425" max="7425" width="13.21875" style="11" customWidth="1"/>
+    <col min="7426" max="7426" width="13" style="11" customWidth="1"/>
+    <col min="7427" max="7427" width="9.77734375" style="11" customWidth="1"/>
+    <col min="7428" max="7428" width="11.77734375" style="11" customWidth="1"/>
+    <col min="7429" max="7432" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="7433" max="7677" width="7.5546875" style="11"/>
+    <col min="7678" max="7678" width="12.44140625" style="11" customWidth="1"/>
+    <col min="7679" max="7679" width="13.21875" style="11" customWidth="1"/>
+    <col min="7680" max="7680" width="5.21875" style="11" customWidth="1"/>
+    <col min="7681" max="7681" width="13.21875" style="11" customWidth="1"/>
+    <col min="7682" max="7682" width="13" style="11" customWidth="1"/>
+    <col min="7683" max="7683" width="9.77734375" style="11" customWidth="1"/>
+    <col min="7684" max="7684" width="11.77734375" style="11" customWidth="1"/>
+    <col min="7685" max="7688" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="7689" max="7933" width="7.5546875" style="11"/>
+    <col min="7934" max="7934" width="12.44140625" style="11" customWidth="1"/>
+    <col min="7935" max="7935" width="13.21875" style="11" customWidth="1"/>
+    <col min="7936" max="7936" width="5.21875" style="11" customWidth="1"/>
+    <col min="7937" max="7937" width="13.21875" style="11" customWidth="1"/>
+    <col min="7938" max="7938" width="13" style="11" customWidth="1"/>
+    <col min="7939" max="7939" width="9.77734375" style="11" customWidth="1"/>
+    <col min="7940" max="7940" width="11.77734375" style="11" customWidth="1"/>
+    <col min="7941" max="7944" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="7945" max="8189" width="7.5546875" style="11"/>
+    <col min="8190" max="8190" width="12.44140625" style="11" customWidth="1"/>
+    <col min="8191" max="8191" width="13.21875" style="11" customWidth="1"/>
+    <col min="8192" max="8192" width="5.21875" style="11" customWidth="1"/>
+    <col min="8193" max="8193" width="13.21875" style="11" customWidth="1"/>
+    <col min="8194" max="8194" width="13" style="11" customWidth="1"/>
+    <col min="8195" max="8195" width="9.77734375" style="11" customWidth="1"/>
+    <col min="8196" max="8196" width="11.77734375" style="11" customWidth="1"/>
+    <col min="8197" max="8200" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="8201" max="8445" width="7.5546875" style="11"/>
+    <col min="8446" max="8446" width="12.44140625" style="11" customWidth="1"/>
+    <col min="8447" max="8447" width="13.21875" style="11" customWidth="1"/>
+    <col min="8448" max="8448" width="5.21875" style="11" customWidth="1"/>
+    <col min="8449" max="8449" width="13.21875" style="11" customWidth="1"/>
+    <col min="8450" max="8450" width="13" style="11" customWidth="1"/>
+    <col min="8451" max="8451" width="9.77734375" style="11" customWidth="1"/>
+    <col min="8452" max="8452" width="11.77734375" style="11" customWidth="1"/>
+    <col min="8453" max="8456" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="8457" max="8701" width="7.5546875" style="11"/>
+    <col min="8702" max="8702" width="12.44140625" style="11" customWidth="1"/>
+    <col min="8703" max="8703" width="13.21875" style="11" customWidth="1"/>
+    <col min="8704" max="8704" width="5.21875" style="11" customWidth="1"/>
+    <col min="8705" max="8705" width="13.21875" style="11" customWidth="1"/>
+    <col min="8706" max="8706" width="13" style="11" customWidth="1"/>
+    <col min="8707" max="8707" width="9.77734375" style="11" customWidth="1"/>
+    <col min="8708" max="8708" width="11.77734375" style="11" customWidth="1"/>
+    <col min="8709" max="8712" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="8713" max="8957" width="7.5546875" style="11"/>
+    <col min="8958" max="8958" width="12.44140625" style="11" customWidth="1"/>
+    <col min="8959" max="8959" width="13.21875" style="11" customWidth="1"/>
+    <col min="8960" max="8960" width="5.21875" style="11" customWidth="1"/>
+    <col min="8961" max="8961" width="13.21875" style="11" customWidth="1"/>
+    <col min="8962" max="8962" width="13" style="11" customWidth="1"/>
+    <col min="8963" max="8963" width="9.77734375" style="11" customWidth="1"/>
+    <col min="8964" max="8964" width="11.77734375" style="11" customWidth="1"/>
+    <col min="8965" max="8968" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="8969" max="9213" width="7.5546875" style="11"/>
+    <col min="9214" max="9214" width="12.44140625" style="11" customWidth="1"/>
+    <col min="9215" max="9215" width="13.21875" style="11" customWidth="1"/>
+    <col min="9216" max="9216" width="5.21875" style="11" customWidth="1"/>
+    <col min="9217" max="9217" width="13.21875" style="11" customWidth="1"/>
+    <col min="9218" max="9218" width="13" style="11" customWidth="1"/>
+    <col min="9219" max="9219" width="9.77734375" style="11" customWidth="1"/>
+    <col min="9220" max="9220" width="11.77734375" style="11" customWidth="1"/>
+    <col min="9221" max="9224" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="9225" max="9469" width="7.5546875" style="11"/>
+    <col min="9470" max="9470" width="12.44140625" style="11" customWidth="1"/>
+    <col min="9471" max="9471" width="13.21875" style="11" customWidth="1"/>
+    <col min="9472" max="9472" width="5.21875" style="11" customWidth="1"/>
+    <col min="9473" max="9473" width="13.21875" style="11" customWidth="1"/>
+    <col min="9474" max="9474" width="13" style="11" customWidth="1"/>
+    <col min="9475" max="9475" width="9.77734375" style="11" customWidth="1"/>
+    <col min="9476" max="9476" width="11.77734375" style="11" customWidth="1"/>
+    <col min="9477" max="9480" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="9481" max="9725" width="7.5546875" style="11"/>
+    <col min="9726" max="9726" width="12.44140625" style="11" customWidth="1"/>
+    <col min="9727" max="9727" width="13.21875" style="11" customWidth="1"/>
+    <col min="9728" max="9728" width="5.21875" style="11" customWidth="1"/>
+    <col min="9729" max="9729" width="13.21875" style="11" customWidth="1"/>
+    <col min="9730" max="9730" width="13" style="11" customWidth="1"/>
+    <col min="9731" max="9731" width="9.77734375" style="11" customWidth="1"/>
+    <col min="9732" max="9732" width="11.77734375" style="11" customWidth="1"/>
+    <col min="9733" max="9736" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="9737" max="9981" width="7.5546875" style="11"/>
+    <col min="9982" max="9982" width="12.44140625" style="11" customWidth="1"/>
+    <col min="9983" max="9983" width="13.21875" style="11" customWidth="1"/>
+    <col min="9984" max="9984" width="5.21875" style="11" customWidth="1"/>
+    <col min="9985" max="9985" width="13.21875" style="11" customWidth="1"/>
+    <col min="9986" max="9986" width="13" style="11" customWidth="1"/>
+    <col min="9987" max="9987" width="9.77734375" style="11" customWidth="1"/>
+    <col min="9988" max="9988" width="11.77734375" style="11" customWidth="1"/>
+    <col min="9989" max="9992" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="9993" max="10237" width="7.5546875" style="11"/>
+    <col min="10238" max="10238" width="12.44140625" style="11" customWidth="1"/>
+    <col min="10239" max="10239" width="13.21875" style="11" customWidth="1"/>
+    <col min="10240" max="10240" width="5.21875" style="11" customWidth="1"/>
+    <col min="10241" max="10241" width="13.21875" style="11" customWidth="1"/>
+    <col min="10242" max="10242" width="13" style="11" customWidth="1"/>
+    <col min="10243" max="10243" width="9.77734375" style="11" customWidth="1"/>
+    <col min="10244" max="10244" width="11.77734375" style="11" customWidth="1"/>
+    <col min="10245" max="10248" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="10249" max="10493" width="7.5546875" style="11"/>
+    <col min="10494" max="10494" width="12.44140625" style="11" customWidth="1"/>
+    <col min="10495" max="10495" width="13.21875" style="11" customWidth="1"/>
+    <col min="10496" max="10496" width="5.21875" style="11" customWidth="1"/>
+    <col min="10497" max="10497" width="13.21875" style="11" customWidth="1"/>
+    <col min="10498" max="10498" width="13" style="11" customWidth="1"/>
+    <col min="10499" max="10499" width="9.77734375" style="11" customWidth="1"/>
+    <col min="10500" max="10500" width="11.77734375" style="11" customWidth="1"/>
+    <col min="10501" max="10504" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="10505" max="10749" width="7.5546875" style="11"/>
+    <col min="10750" max="10750" width="12.44140625" style="11" customWidth="1"/>
+    <col min="10751" max="10751" width="13.21875" style="11" customWidth="1"/>
+    <col min="10752" max="10752" width="5.21875" style="11" customWidth="1"/>
+    <col min="10753" max="10753" width="13.21875" style="11" customWidth="1"/>
+    <col min="10754" max="10754" width="13" style="11" customWidth="1"/>
+    <col min="10755" max="10755" width="9.77734375" style="11" customWidth="1"/>
+    <col min="10756" max="10756" width="11.77734375" style="11" customWidth="1"/>
+    <col min="10757" max="10760" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="10761" max="11005" width="7.5546875" style="11"/>
+    <col min="11006" max="11006" width="12.44140625" style="11" customWidth="1"/>
+    <col min="11007" max="11007" width="13.21875" style="11" customWidth="1"/>
+    <col min="11008" max="11008" width="5.21875" style="11" customWidth="1"/>
+    <col min="11009" max="11009" width="13.21875" style="11" customWidth="1"/>
+    <col min="11010" max="11010" width="13" style="11" customWidth="1"/>
+    <col min="11011" max="11011" width="9.77734375" style="11" customWidth="1"/>
+    <col min="11012" max="11012" width="11.77734375" style="11" customWidth="1"/>
+    <col min="11013" max="11016" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="11017" max="11261" width="7.5546875" style="11"/>
+    <col min="11262" max="11262" width="12.44140625" style="11" customWidth="1"/>
+    <col min="11263" max="11263" width="13.21875" style="11" customWidth="1"/>
+    <col min="11264" max="11264" width="5.21875" style="11" customWidth="1"/>
+    <col min="11265" max="11265" width="13.21875" style="11" customWidth="1"/>
+    <col min="11266" max="11266" width="13" style="11" customWidth="1"/>
+    <col min="11267" max="11267" width="9.77734375" style="11" customWidth="1"/>
+    <col min="11268" max="11268" width="11.77734375" style="11" customWidth="1"/>
+    <col min="11269" max="11272" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="11273" max="11517" width="7.5546875" style="11"/>
+    <col min="11518" max="11518" width="12.44140625" style="11" customWidth="1"/>
+    <col min="11519" max="11519" width="13.21875" style="11" customWidth="1"/>
+    <col min="11520" max="11520" width="5.21875" style="11" customWidth="1"/>
+    <col min="11521" max="11521" width="13.21875" style="11" customWidth="1"/>
+    <col min="11522" max="11522" width="13" style="11" customWidth="1"/>
+    <col min="11523" max="11523" width="9.77734375" style="11" customWidth="1"/>
+    <col min="11524" max="11524" width="11.77734375" style="11" customWidth="1"/>
+    <col min="11525" max="11528" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="11529" max="11773" width="7.5546875" style="11"/>
+    <col min="11774" max="11774" width="12.44140625" style="11" customWidth="1"/>
+    <col min="11775" max="11775" width="13.21875" style="11" customWidth="1"/>
+    <col min="11776" max="11776" width="5.21875" style="11" customWidth="1"/>
+    <col min="11777" max="11777" width="13.21875" style="11" customWidth="1"/>
+    <col min="11778" max="11778" width="13" style="11" customWidth="1"/>
+    <col min="11779" max="11779" width="9.77734375" style="11" customWidth="1"/>
+    <col min="11780" max="11780" width="11.77734375" style="11" customWidth="1"/>
+    <col min="11781" max="11784" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="11785" max="12029" width="7.5546875" style="11"/>
+    <col min="12030" max="12030" width="12.44140625" style="11" customWidth="1"/>
+    <col min="12031" max="12031" width="13.21875" style="11" customWidth="1"/>
+    <col min="12032" max="12032" width="5.21875" style="11" customWidth="1"/>
+    <col min="12033" max="12033" width="13.21875" style="11" customWidth="1"/>
+    <col min="12034" max="12034" width="13" style="11" customWidth="1"/>
+    <col min="12035" max="12035" width="9.77734375" style="11" customWidth="1"/>
+    <col min="12036" max="12036" width="11.77734375" style="11" customWidth="1"/>
+    <col min="12037" max="12040" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="12041" max="12285" width="7.5546875" style="11"/>
+    <col min="12286" max="12286" width="12.44140625" style="11" customWidth="1"/>
+    <col min="12287" max="12287" width="13.21875" style="11" customWidth="1"/>
+    <col min="12288" max="12288" width="5.21875" style="11" customWidth="1"/>
+    <col min="12289" max="12289" width="13.21875" style="11" customWidth="1"/>
+    <col min="12290" max="12290" width="13" style="11" customWidth="1"/>
+    <col min="12291" max="12291" width="9.77734375" style="11" customWidth="1"/>
+    <col min="12292" max="12292" width="11.77734375" style="11" customWidth="1"/>
+    <col min="12293" max="12296" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="12297" max="12541" width="7.5546875" style="11"/>
+    <col min="12542" max="12542" width="12.44140625" style="11" customWidth="1"/>
+    <col min="12543" max="12543" width="13.21875" style="11" customWidth="1"/>
+    <col min="12544" max="12544" width="5.21875" style="11" customWidth="1"/>
+    <col min="12545" max="12545" width="13.21875" style="11" customWidth="1"/>
+    <col min="12546" max="12546" width="13" style="11" customWidth="1"/>
+    <col min="12547" max="12547" width="9.77734375" style="11" customWidth="1"/>
+    <col min="12548" max="12548" width="11.77734375" style="11" customWidth="1"/>
+    <col min="12549" max="12552" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="12553" max="12797" width="7.5546875" style="11"/>
+    <col min="12798" max="12798" width="12.44140625" style="11" customWidth="1"/>
+    <col min="12799" max="12799" width="13.21875" style="11" customWidth="1"/>
+    <col min="12800" max="12800" width="5.21875" style="11" customWidth="1"/>
+    <col min="12801" max="12801" width="13.21875" style="11" customWidth="1"/>
+    <col min="12802" max="12802" width="13" style="11" customWidth="1"/>
+    <col min="12803" max="12803" width="9.77734375" style="11" customWidth="1"/>
+    <col min="12804" max="12804" width="11.77734375" style="11" customWidth="1"/>
+    <col min="12805" max="12808" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="12809" max="13053" width="7.5546875" style="11"/>
+    <col min="13054" max="13054" width="12.44140625" style="11" customWidth="1"/>
+    <col min="13055" max="13055" width="13.21875" style="11" customWidth="1"/>
+    <col min="13056" max="13056" width="5.21875" style="11" customWidth="1"/>
+    <col min="13057" max="13057" width="13.21875" style="11" customWidth="1"/>
+    <col min="13058" max="13058" width="13" style="11" customWidth="1"/>
+    <col min="13059" max="13059" width="9.77734375" style="11" customWidth="1"/>
+    <col min="13060" max="13060" width="11.77734375" style="11" customWidth="1"/>
+    <col min="13061" max="13064" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="13065" max="13309" width="7.5546875" style="11"/>
+    <col min="13310" max="13310" width="12.44140625" style="11" customWidth="1"/>
+    <col min="13311" max="13311" width="13.21875" style="11" customWidth="1"/>
+    <col min="13312" max="13312" width="5.21875" style="11" customWidth="1"/>
+    <col min="13313" max="13313" width="13.21875" style="11" customWidth="1"/>
+    <col min="13314" max="13314" width="13" style="11" customWidth="1"/>
+    <col min="13315" max="13315" width="9.77734375" style="11" customWidth="1"/>
+    <col min="13316" max="13316" width="11.77734375" style="11" customWidth="1"/>
+    <col min="13317" max="13320" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="13321" max="13565" width="7.5546875" style="11"/>
+    <col min="13566" max="13566" width="12.44140625" style="11" customWidth="1"/>
+    <col min="13567" max="13567" width="13.21875" style="11" customWidth="1"/>
+    <col min="13568" max="13568" width="5.21875" style="11" customWidth="1"/>
+    <col min="13569" max="13569" width="13.21875" style="11" customWidth="1"/>
+    <col min="13570" max="13570" width="13" style="11" customWidth="1"/>
+    <col min="13571" max="13571" width="9.77734375" style="11" customWidth="1"/>
+    <col min="13572" max="13572" width="11.77734375" style="11" customWidth="1"/>
+    <col min="13573" max="13576" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="13577" max="13821" width="7.5546875" style="11"/>
+    <col min="13822" max="13822" width="12.44140625" style="11" customWidth="1"/>
+    <col min="13823" max="13823" width="13.21875" style="11" customWidth="1"/>
+    <col min="13824" max="13824" width="5.21875" style="11" customWidth="1"/>
+    <col min="13825" max="13825" width="13.21875" style="11" customWidth="1"/>
+    <col min="13826" max="13826" width="13" style="11" customWidth="1"/>
+    <col min="13827" max="13827" width="9.77734375" style="11" customWidth="1"/>
+    <col min="13828" max="13828" width="11.77734375" style="11" customWidth="1"/>
+    <col min="13829" max="13832" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="13833" max="14077" width="7.5546875" style="11"/>
+    <col min="14078" max="14078" width="12.44140625" style="11" customWidth="1"/>
+    <col min="14079" max="14079" width="13.21875" style="11" customWidth="1"/>
+    <col min="14080" max="14080" width="5.21875" style="11" customWidth="1"/>
+    <col min="14081" max="14081" width="13.21875" style="11" customWidth="1"/>
+    <col min="14082" max="14082" width="13" style="11" customWidth="1"/>
+    <col min="14083" max="14083" width="9.77734375" style="11" customWidth="1"/>
+    <col min="14084" max="14084" width="11.77734375" style="11" customWidth="1"/>
+    <col min="14085" max="14088" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="14089" max="14333" width="7.5546875" style="11"/>
+    <col min="14334" max="14334" width="12.44140625" style="11" customWidth="1"/>
+    <col min="14335" max="14335" width="13.21875" style="11" customWidth="1"/>
+    <col min="14336" max="14336" width="5.21875" style="11" customWidth="1"/>
+    <col min="14337" max="14337" width="13.21875" style="11" customWidth="1"/>
+    <col min="14338" max="14338" width="13" style="11" customWidth="1"/>
+    <col min="14339" max="14339" width="9.77734375" style="11" customWidth="1"/>
+    <col min="14340" max="14340" width="11.77734375" style="11" customWidth="1"/>
+    <col min="14341" max="14344" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="14345" max="14589" width="7.5546875" style="11"/>
+    <col min="14590" max="14590" width="12.44140625" style="11" customWidth="1"/>
+    <col min="14591" max="14591" width="13.21875" style="11" customWidth="1"/>
+    <col min="14592" max="14592" width="5.21875" style="11" customWidth="1"/>
+    <col min="14593" max="14593" width="13.21875" style="11" customWidth="1"/>
+    <col min="14594" max="14594" width="13" style="11" customWidth="1"/>
+    <col min="14595" max="14595" width="9.77734375" style="11" customWidth="1"/>
+    <col min="14596" max="14596" width="11.77734375" style="11" customWidth="1"/>
+    <col min="14597" max="14600" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="14601" max="14845" width="7.5546875" style="11"/>
+    <col min="14846" max="14846" width="12.44140625" style="11" customWidth="1"/>
+    <col min="14847" max="14847" width="13.21875" style="11" customWidth="1"/>
+    <col min="14848" max="14848" width="5.21875" style="11" customWidth="1"/>
+    <col min="14849" max="14849" width="13.21875" style="11" customWidth="1"/>
+    <col min="14850" max="14850" width="13" style="11" customWidth="1"/>
+    <col min="14851" max="14851" width="9.77734375" style="11" customWidth="1"/>
+    <col min="14852" max="14852" width="11.77734375" style="11" customWidth="1"/>
+    <col min="14853" max="14856" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="14857" max="15101" width="7.5546875" style="11"/>
+    <col min="15102" max="15102" width="12.44140625" style="11" customWidth="1"/>
+    <col min="15103" max="15103" width="13.21875" style="11" customWidth="1"/>
+    <col min="15104" max="15104" width="5.21875" style="11" customWidth="1"/>
+    <col min="15105" max="15105" width="13.21875" style="11" customWidth="1"/>
+    <col min="15106" max="15106" width="13" style="11" customWidth="1"/>
+    <col min="15107" max="15107" width="9.77734375" style="11" customWidth="1"/>
+    <col min="15108" max="15108" width="11.77734375" style="11" customWidth="1"/>
+    <col min="15109" max="15112" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="15113" max="15357" width="7.5546875" style="11"/>
+    <col min="15358" max="15358" width="12.44140625" style="11" customWidth="1"/>
+    <col min="15359" max="15359" width="13.21875" style="11" customWidth="1"/>
+    <col min="15360" max="15360" width="5.21875" style="11" customWidth="1"/>
+    <col min="15361" max="15361" width="13.21875" style="11" customWidth="1"/>
+    <col min="15362" max="15362" width="13" style="11" customWidth="1"/>
+    <col min="15363" max="15363" width="9.77734375" style="11" customWidth="1"/>
+    <col min="15364" max="15364" width="11.77734375" style="11" customWidth="1"/>
+    <col min="15365" max="15368" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="15369" max="15613" width="7.5546875" style="11"/>
+    <col min="15614" max="15614" width="12.44140625" style="11" customWidth="1"/>
+    <col min="15615" max="15615" width="13.21875" style="11" customWidth="1"/>
+    <col min="15616" max="15616" width="5.21875" style="11" customWidth="1"/>
+    <col min="15617" max="15617" width="13.21875" style="11" customWidth="1"/>
+    <col min="15618" max="15618" width="13" style="11" customWidth="1"/>
+    <col min="15619" max="15619" width="9.77734375" style="11" customWidth="1"/>
+    <col min="15620" max="15620" width="11.77734375" style="11" customWidth="1"/>
+    <col min="15621" max="15624" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="15625" max="15869" width="7.5546875" style="11"/>
+    <col min="15870" max="15870" width="12.44140625" style="11" customWidth="1"/>
+    <col min="15871" max="15871" width="13.21875" style="11" customWidth="1"/>
+    <col min="15872" max="15872" width="5.21875" style="11" customWidth="1"/>
+    <col min="15873" max="15873" width="13.21875" style="11" customWidth="1"/>
+    <col min="15874" max="15874" width="13" style="11" customWidth="1"/>
+    <col min="15875" max="15875" width="9.77734375" style="11" customWidth="1"/>
+    <col min="15876" max="15876" width="11.77734375" style="11" customWidth="1"/>
+    <col min="15877" max="15880" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="15881" max="16125" width="7.5546875" style="11"/>
+    <col min="16126" max="16126" width="12.44140625" style="11" customWidth="1"/>
+    <col min="16127" max="16127" width="13.21875" style="11" customWidth="1"/>
+    <col min="16128" max="16128" width="5.21875" style="11" customWidth="1"/>
+    <col min="16129" max="16129" width="13.21875" style="11" customWidth="1"/>
+    <col min="16130" max="16130" width="13" style="11" customWidth="1"/>
+    <col min="16131" max="16131" width="9.77734375" style="11" customWidth="1"/>
+    <col min="16132" max="16132" width="11.77734375" style="11" customWidth="1"/>
+    <col min="16133" max="16136" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="16137" max="16384" width="7.5546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1">
+    <row r="1" spans="1:11" ht="34.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="R1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="13" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="32.25" customHeight="1">
+      <c r="A9" s="41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.15" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="E11" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="F7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="4">
-        <v>44922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:19" ht="27.15" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="13"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="40"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="18"/>
       <c r="K13" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="41">
-        <v>44921</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="41">
-        <v>44942</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+    <row r="14" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:11" ht="29.25" customHeight="1"/>
     <row r="18" spans="1:11" ht="33" customHeight="1">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="48" t="s">
+      <c r="E18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="F18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="48" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="16.5" customHeight="1">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" ht="27.15" customHeight="1">
+      <c r="B20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="I20" s="29">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J20" s="29">
+        <v>10.8</v>
+      </c>
+      <c r="K20" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" customHeight="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-    </row>
-    <row r="20" spans="1:11" ht="27.15" customHeight="1">
-      <c r="B20" s="28" t="s">
+    <row r="21" spans="1:11" ht="27.15" customHeight="1">
+      <c r="B21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="I21" s="29">
+        <v>18</v>
+      </c>
+      <c r="J21" s="29">
+        <v>22</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="27.15" customHeight="1">
+      <c r="B22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="I20" s="33">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="J20" s="33">
-        <v>10.8</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="27.15" customHeight="1">
-      <c r="B21" s="26" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="I22" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="J22" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="27.15" customHeight="1">
+      <c r="B23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="I21" s="33">
-        <v>18</v>
-      </c>
-      <c r="J21" s="33">
-        <v>22</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="27.15" customHeight="1">
-      <c r="B22" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="I22" s="33">
-        <v>1.7</v>
-      </c>
-      <c r="J22" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="27.15" customHeight="1">
-      <c r="B23" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="I23" s="33">
+      <c r="C23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26"/>
+      <c r="I23" s="29">
         <v>11.5</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="29">
         <v>14.5</v>
       </c>
-      <c r="K23" s="33" t="s">
-        <v>14</v>
+      <c r="K23" s="29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>16</v>
+      <c r="A29" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/05.Controls/M3.QA.Controls/Resources/Excels/COA5.xlsx
+++ b/05.Controls/M3.QA.Controls/Resources/Excels/COA5.xlsx
@@ -138,7 +138,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +227,12 @@
       <family val="1"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <name val="AngsanaUPC"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,18 +421,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -530,6 +524,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -958,590 +964,590 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="23.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="5.21875" style="11" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.77734375" style="11" hidden="1" customWidth="1"/>
-    <col min="12" max="253" width="7.5546875" style="11"/>
-    <col min="254" max="254" width="12.44140625" style="11" customWidth="1"/>
-    <col min="255" max="255" width="13.21875" style="11" customWidth="1"/>
-    <col min="256" max="256" width="5.21875" style="11" customWidth="1"/>
-    <col min="257" max="257" width="13.21875" style="11" customWidth="1"/>
-    <col min="258" max="258" width="13" style="11" customWidth="1"/>
-    <col min="259" max="259" width="9.77734375" style="11" customWidth="1"/>
-    <col min="260" max="260" width="11.77734375" style="11" customWidth="1"/>
-    <col min="261" max="264" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="265" max="509" width="7.5546875" style="11"/>
-    <col min="510" max="510" width="12.44140625" style="11" customWidth="1"/>
-    <col min="511" max="511" width="13.21875" style="11" customWidth="1"/>
-    <col min="512" max="512" width="5.21875" style="11" customWidth="1"/>
-    <col min="513" max="513" width="13.21875" style="11" customWidth="1"/>
-    <col min="514" max="514" width="13" style="11" customWidth="1"/>
-    <col min="515" max="515" width="9.77734375" style="11" customWidth="1"/>
-    <col min="516" max="516" width="11.77734375" style="11" customWidth="1"/>
-    <col min="517" max="520" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="521" max="765" width="7.5546875" style="11"/>
-    <col min="766" max="766" width="12.44140625" style="11" customWidth="1"/>
-    <col min="767" max="767" width="13.21875" style="11" customWidth="1"/>
-    <col min="768" max="768" width="5.21875" style="11" customWidth="1"/>
-    <col min="769" max="769" width="13.21875" style="11" customWidth="1"/>
-    <col min="770" max="770" width="13" style="11" customWidth="1"/>
-    <col min="771" max="771" width="9.77734375" style="11" customWidth="1"/>
-    <col min="772" max="772" width="11.77734375" style="11" customWidth="1"/>
-    <col min="773" max="776" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="777" max="1021" width="7.5546875" style="11"/>
-    <col min="1022" max="1022" width="12.44140625" style="11" customWidth="1"/>
-    <col min="1023" max="1023" width="13.21875" style="11" customWidth="1"/>
-    <col min="1024" max="1024" width="5.21875" style="11" customWidth="1"/>
-    <col min="1025" max="1025" width="13.21875" style="11" customWidth="1"/>
-    <col min="1026" max="1026" width="13" style="11" customWidth="1"/>
-    <col min="1027" max="1027" width="9.77734375" style="11" customWidth="1"/>
-    <col min="1028" max="1028" width="11.77734375" style="11" customWidth="1"/>
-    <col min="1029" max="1032" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="1033" max="1277" width="7.5546875" style="11"/>
-    <col min="1278" max="1278" width="12.44140625" style="11" customWidth="1"/>
-    <col min="1279" max="1279" width="13.21875" style="11" customWidth="1"/>
-    <col min="1280" max="1280" width="5.21875" style="11" customWidth="1"/>
-    <col min="1281" max="1281" width="13.21875" style="11" customWidth="1"/>
-    <col min="1282" max="1282" width="13" style="11" customWidth="1"/>
-    <col min="1283" max="1283" width="9.77734375" style="11" customWidth="1"/>
-    <col min="1284" max="1284" width="11.77734375" style="11" customWidth="1"/>
-    <col min="1285" max="1288" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="1289" max="1533" width="7.5546875" style="11"/>
-    <col min="1534" max="1534" width="12.44140625" style="11" customWidth="1"/>
-    <col min="1535" max="1535" width="13.21875" style="11" customWidth="1"/>
-    <col min="1536" max="1536" width="5.21875" style="11" customWidth="1"/>
-    <col min="1537" max="1537" width="13.21875" style="11" customWidth="1"/>
-    <col min="1538" max="1538" width="13" style="11" customWidth="1"/>
-    <col min="1539" max="1539" width="9.77734375" style="11" customWidth="1"/>
-    <col min="1540" max="1540" width="11.77734375" style="11" customWidth="1"/>
-    <col min="1541" max="1544" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="1545" max="1789" width="7.5546875" style="11"/>
-    <col min="1790" max="1790" width="12.44140625" style="11" customWidth="1"/>
-    <col min="1791" max="1791" width="13.21875" style="11" customWidth="1"/>
-    <col min="1792" max="1792" width="5.21875" style="11" customWidth="1"/>
-    <col min="1793" max="1793" width="13.21875" style="11" customWidth="1"/>
-    <col min="1794" max="1794" width="13" style="11" customWidth="1"/>
-    <col min="1795" max="1795" width="9.77734375" style="11" customWidth="1"/>
-    <col min="1796" max="1796" width="11.77734375" style="11" customWidth="1"/>
-    <col min="1797" max="1800" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="1801" max="2045" width="7.5546875" style="11"/>
-    <col min="2046" max="2046" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2047" max="2047" width="13.21875" style="11" customWidth="1"/>
-    <col min="2048" max="2048" width="5.21875" style="11" customWidth="1"/>
-    <col min="2049" max="2049" width="13.21875" style="11" customWidth="1"/>
-    <col min="2050" max="2050" width="13" style="11" customWidth="1"/>
-    <col min="2051" max="2051" width="9.77734375" style="11" customWidth="1"/>
-    <col min="2052" max="2052" width="11.77734375" style="11" customWidth="1"/>
-    <col min="2053" max="2056" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="2057" max="2301" width="7.5546875" style="11"/>
-    <col min="2302" max="2302" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2303" max="2303" width="13.21875" style="11" customWidth="1"/>
-    <col min="2304" max="2304" width="5.21875" style="11" customWidth="1"/>
-    <col min="2305" max="2305" width="13.21875" style="11" customWidth="1"/>
-    <col min="2306" max="2306" width="13" style="11" customWidth="1"/>
-    <col min="2307" max="2307" width="9.77734375" style="11" customWidth="1"/>
-    <col min="2308" max="2308" width="11.77734375" style="11" customWidth="1"/>
-    <col min="2309" max="2312" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="2313" max="2557" width="7.5546875" style="11"/>
-    <col min="2558" max="2558" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2559" max="2559" width="13.21875" style="11" customWidth="1"/>
-    <col min="2560" max="2560" width="5.21875" style="11" customWidth="1"/>
-    <col min="2561" max="2561" width="13.21875" style="11" customWidth="1"/>
-    <col min="2562" max="2562" width="13" style="11" customWidth="1"/>
-    <col min="2563" max="2563" width="9.77734375" style="11" customWidth="1"/>
-    <col min="2564" max="2564" width="11.77734375" style="11" customWidth="1"/>
-    <col min="2565" max="2568" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="2569" max="2813" width="7.5546875" style="11"/>
-    <col min="2814" max="2814" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2815" max="2815" width="13.21875" style="11" customWidth="1"/>
-    <col min="2816" max="2816" width="5.21875" style="11" customWidth="1"/>
-    <col min="2817" max="2817" width="13.21875" style="11" customWidth="1"/>
-    <col min="2818" max="2818" width="13" style="11" customWidth="1"/>
-    <col min="2819" max="2819" width="9.77734375" style="11" customWidth="1"/>
-    <col min="2820" max="2820" width="11.77734375" style="11" customWidth="1"/>
-    <col min="2821" max="2824" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="2825" max="3069" width="7.5546875" style="11"/>
-    <col min="3070" max="3070" width="12.44140625" style="11" customWidth="1"/>
-    <col min="3071" max="3071" width="13.21875" style="11" customWidth="1"/>
-    <col min="3072" max="3072" width="5.21875" style="11" customWidth="1"/>
-    <col min="3073" max="3073" width="13.21875" style="11" customWidth="1"/>
-    <col min="3074" max="3074" width="13" style="11" customWidth="1"/>
-    <col min="3075" max="3075" width="9.77734375" style="11" customWidth="1"/>
-    <col min="3076" max="3076" width="11.77734375" style="11" customWidth="1"/>
-    <col min="3077" max="3080" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="3081" max="3325" width="7.5546875" style="11"/>
-    <col min="3326" max="3326" width="12.44140625" style="11" customWidth="1"/>
-    <col min="3327" max="3327" width="13.21875" style="11" customWidth="1"/>
-    <col min="3328" max="3328" width="5.21875" style="11" customWidth="1"/>
-    <col min="3329" max="3329" width="13.21875" style="11" customWidth="1"/>
-    <col min="3330" max="3330" width="13" style="11" customWidth="1"/>
-    <col min="3331" max="3331" width="9.77734375" style="11" customWidth="1"/>
-    <col min="3332" max="3332" width="11.77734375" style="11" customWidth="1"/>
-    <col min="3333" max="3336" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="3337" max="3581" width="7.5546875" style="11"/>
-    <col min="3582" max="3582" width="12.44140625" style="11" customWidth="1"/>
-    <col min="3583" max="3583" width="13.21875" style="11" customWidth="1"/>
-    <col min="3584" max="3584" width="5.21875" style="11" customWidth="1"/>
-    <col min="3585" max="3585" width="13.21875" style="11" customWidth="1"/>
-    <col min="3586" max="3586" width="13" style="11" customWidth="1"/>
-    <col min="3587" max="3587" width="9.77734375" style="11" customWidth="1"/>
-    <col min="3588" max="3588" width="11.77734375" style="11" customWidth="1"/>
-    <col min="3589" max="3592" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="3593" max="3837" width="7.5546875" style="11"/>
-    <col min="3838" max="3838" width="12.44140625" style="11" customWidth="1"/>
-    <col min="3839" max="3839" width="13.21875" style="11" customWidth="1"/>
-    <col min="3840" max="3840" width="5.21875" style="11" customWidth="1"/>
-    <col min="3841" max="3841" width="13.21875" style="11" customWidth="1"/>
-    <col min="3842" max="3842" width="13" style="11" customWidth="1"/>
-    <col min="3843" max="3843" width="9.77734375" style="11" customWidth="1"/>
-    <col min="3844" max="3844" width="11.77734375" style="11" customWidth="1"/>
-    <col min="3845" max="3848" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="3849" max="4093" width="7.5546875" style="11"/>
-    <col min="4094" max="4094" width="12.44140625" style="11" customWidth="1"/>
-    <col min="4095" max="4095" width="13.21875" style="11" customWidth="1"/>
-    <col min="4096" max="4096" width="5.21875" style="11" customWidth="1"/>
-    <col min="4097" max="4097" width="13.21875" style="11" customWidth="1"/>
-    <col min="4098" max="4098" width="13" style="11" customWidth="1"/>
-    <col min="4099" max="4099" width="9.77734375" style="11" customWidth="1"/>
-    <col min="4100" max="4100" width="11.77734375" style="11" customWidth="1"/>
-    <col min="4101" max="4104" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="4105" max="4349" width="7.5546875" style="11"/>
-    <col min="4350" max="4350" width="12.44140625" style="11" customWidth="1"/>
-    <col min="4351" max="4351" width="13.21875" style="11" customWidth="1"/>
-    <col min="4352" max="4352" width="5.21875" style="11" customWidth="1"/>
-    <col min="4353" max="4353" width="13.21875" style="11" customWidth="1"/>
-    <col min="4354" max="4354" width="13" style="11" customWidth="1"/>
-    <col min="4355" max="4355" width="9.77734375" style="11" customWidth="1"/>
-    <col min="4356" max="4356" width="11.77734375" style="11" customWidth="1"/>
-    <col min="4357" max="4360" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="4361" max="4605" width="7.5546875" style="11"/>
-    <col min="4606" max="4606" width="12.44140625" style="11" customWidth="1"/>
-    <col min="4607" max="4607" width="13.21875" style="11" customWidth="1"/>
-    <col min="4608" max="4608" width="5.21875" style="11" customWidth="1"/>
-    <col min="4609" max="4609" width="13.21875" style="11" customWidth="1"/>
-    <col min="4610" max="4610" width="13" style="11" customWidth="1"/>
-    <col min="4611" max="4611" width="9.77734375" style="11" customWidth="1"/>
-    <col min="4612" max="4612" width="11.77734375" style="11" customWidth="1"/>
-    <col min="4613" max="4616" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="4617" max="4861" width="7.5546875" style="11"/>
-    <col min="4862" max="4862" width="12.44140625" style="11" customWidth="1"/>
-    <col min="4863" max="4863" width="13.21875" style="11" customWidth="1"/>
-    <col min="4864" max="4864" width="5.21875" style="11" customWidth="1"/>
-    <col min="4865" max="4865" width="13.21875" style="11" customWidth="1"/>
-    <col min="4866" max="4866" width="13" style="11" customWidth="1"/>
-    <col min="4867" max="4867" width="9.77734375" style="11" customWidth="1"/>
-    <col min="4868" max="4868" width="11.77734375" style="11" customWidth="1"/>
-    <col min="4869" max="4872" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="4873" max="5117" width="7.5546875" style="11"/>
-    <col min="5118" max="5118" width="12.44140625" style="11" customWidth="1"/>
-    <col min="5119" max="5119" width="13.21875" style="11" customWidth="1"/>
-    <col min="5120" max="5120" width="5.21875" style="11" customWidth="1"/>
-    <col min="5121" max="5121" width="13.21875" style="11" customWidth="1"/>
-    <col min="5122" max="5122" width="13" style="11" customWidth="1"/>
-    <col min="5123" max="5123" width="9.77734375" style="11" customWidth="1"/>
-    <col min="5124" max="5124" width="11.77734375" style="11" customWidth="1"/>
-    <col min="5125" max="5128" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="5129" max="5373" width="7.5546875" style="11"/>
-    <col min="5374" max="5374" width="12.44140625" style="11" customWidth="1"/>
-    <col min="5375" max="5375" width="13.21875" style="11" customWidth="1"/>
-    <col min="5376" max="5376" width="5.21875" style="11" customWidth="1"/>
-    <col min="5377" max="5377" width="13.21875" style="11" customWidth="1"/>
-    <col min="5378" max="5378" width="13" style="11" customWidth="1"/>
-    <col min="5379" max="5379" width="9.77734375" style="11" customWidth="1"/>
-    <col min="5380" max="5380" width="11.77734375" style="11" customWidth="1"/>
-    <col min="5381" max="5384" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="5385" max="5629" width="7.5546875" style="11"/>
-    <col min="5630" max="5630" width="12.44140625" style="11" customWidth="1"/>
-    <col min="5631" max="5631" width="13.21875" style="11" customWidth="1"/>
-    <col min="5632" max="5632" width="5.21875" style="11" customWidth="1"/>
-    <col min="5633" max="5633" width="13.21875" style="11" customWidth="1"/>
-    <col min="5634" max="5634" width="13" style="11" customWidth="1"/>
-    <col min="5635" max="5635" width="9.77734375" style="11" customWidth="1"/>
-    <col min="5636" max="5636" width="11.77734375" style="11" customWidth="1"/>
-    <col min="5637" max="5640" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="5641" max="5885" width="7.5546875" style="11"/>
-    <col min="5886" max="5886" width="12.44140625" style="11" customWidth="1"/>
-    <col min="5887" max="5887" width="13.21875" style="11" customWidth="1"/>
-    <col min="5888" max="5888" width="5.21875" style="11" customWidth="1"/>
-    <col min="5889" max="5889" width="13.21875" style="11" customWidth="1"/>
-    <col min="5890" max="5890" width="13" style="11" customWidth="1"/>
-    <col min="5891" max="5891" width="9.77734375" style="11" customWidth="1"/>
-    <col min="5892" max="5892" width="11.77734375" style="11" customWidth="1"/>
-    <col min="5893" max="5896" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="5897" max="6141" width="7.5546875" style="11"/>
-    <col min="6142" max="6142" width="12.44140625" style="11" customWidth="1"/>
-    <col min="6143" max="6143" width="13.21875" style="11" customWidth="1"/>
-    <col min="6144" max="6144" width="5.21875" style="11" customWidth="1"/>
-    <col min="6145" max="6145" width="13.21875" style="11" customWidth="1"/>
-    <col min="6146" max="6146" width="13" style="11" customWidth="1"/>
-    <col min="6147" max="6147" width="9.77734375" style="11" customWidth="1"/>
-    <col min="6148" max="6148" width="11.77734375" style="11" customWidth="1"/>
-    <col min="6149" max="6152" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="6153" max="6397" width="7.5546875" style="11"/>
-    <col min="6398" max="6398" width="12.44140625" style="11" customWidth="1"/>
-    <col min="6399" max="6399" width="13.21875" style="11" customWidth="1"/>
-    <col min="6400" max="6400" width="5.21875" style="11" customWidth="1"/>
-    <col min="6401" max="6401" width="13.21875" style="11" customWidth="1"/>
-    <col min="6402" max="6402" width="13" style="11" customWidth="1"/>
-    <col min="6403" max="6403" width="9.77734375" style="11" customWidth="1"/>
-    <col min="6404" max="6404" width="11.77734375" style="11" customWidth="1"/>
-    <col min="6405" max="6408" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="6409" max="6653" width="7.5546875" style="11"/>
-    <col min="6654" max="6654" width="12.44140625" style="11" customWidth="1"/>
-    <col min="6655" max="6655" width="13.21875" style="11" customWidth="1"/>
-    <col min="6656" max="6656" width="5.21875" style="11" customWidth="1"/>
-    <col min="6657" max="6657" width="13.21875" style="11" customWidth="1"/>
-    <col min="6658" max="6658" width="13" style="11" customWidth="1"/>
-    <col min="6659" max="6659" width="9.77734375" style="11" customWidth="1"/>
-    <col min="6660" max="6660" width="11.77734375" style="11" customWidth="1"/>
-    <col min="6661" max="6664" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="6665" max="6909" width="7.5546875" style="11"/>
-    <col min="6910" max="6910" width="12.44140625" style="11" customWidth="1"/>
-    <col min="6911" max="6911" width="13.21875" style="11" customWidth="1"/>
-    <col min="6912" max="6912" width="5.21875" style="11" customWidth="1"/>
-    <col min="6913" max="6913" width="13.21875" style="11" customWidth="1"/>
-    <col min="6914" max="6914" width="13" style="11" customWidth="1"/>
-    <col min="6915" max="6915" width="9.77734375" style="11" customWidth="1"/>
-    <col min="6916" max="6916" width="11.77734375" style="11" customWidth="1"/>
-    <col min="6917" max="6920" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="6921" max="7165" width="7.5546875" style="11"/>
-    <col min="7166" max="7166" width="12.44140625" style="11" customWidth="1"/>
-    <col min="7167" max="7167" width="13.21875" style="11" customWidth="1"/>
-    <col min="7168" max="7168" width="5.21875" style="11" customWidth="1"/>
-    <col min="7169" max="7169" width="13.21875" style="11" customWidth="1"/>
-    <col min="7170" max="7170" width="13" style="11" customWidth="1"/>
-    <col min="7171" max="7171" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7172" max="7172" width="11.77734375" style="11" customWidth="1"/>
-    <col min="7173" max="7176" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="7177" max="7421" width="7.5546875" style="11"/>
-    <col min="7422" max="7422" width="12.44140625" style="11" customWidth="1"/>
-    <col min="7423" max="7423" width="13.21875" style="11" customWidth="1"/>
-    <col min="7424" max="7424" width="5.21875" style="11" customWidth="1"/>
-    <col min="7425" max="7425" width="13.21875" style="11" customWidth="1"/>
-    <col min="7426" max="7426" width="13" style="11" customWidth="1"/>
-    <col min="7427" max="7427" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7428" max="7428" width="11.77734375" style="11" customWidth="1"/>
-    <col min="7429" max="7432" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="7433" max="7677" width="7.5546875" style="11"/>
-    <col min="7678" max="7678" width="12.44140625" style="11" customWidth="1"/>
-    <col min="7679" max="7679" width="13.21875" style="11" customWidth="1"/>
-    <col min="7680" max="7680" width="5.21875" style="11" customWidth="1"/>
-    <col min="7681" max="7681" width="13.21875" style="11" customWidth="1"/>
-    <col min="7682" max="7682" width="13" style="11" customWidth="1"/>
-    <col min="7683" max="7683" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7684" max="7684" width="11.77734375" style="11" customWidth="1"/>
-    <col min="7685" max="7688" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="7689" max="7933" width="7.5546875" style="11"/>
-    <col min="7934" max="7934" width="12.44140625" style="11" customWidth="1"/>
-    <col min="7935" max="7935" width="13.21875" style="11" customWidth="1"/>
-    <col min="7936" max="7936" width="5.21875" style="11" customWidth="1"/>
-    <col min="7937" max="7937" width="13.21875" style="11" customWidth="1"/>
-    <col min="7938" max="7938" width="13" style="11" customWidth="1"/>
-    <col min="7939" max="7939" width="9.77734375" style="11" customWidth="1"/>
-    <col min="7940" max="7940" width="11.77734375" style="11" customWidth="1"/>
-    <col min="7941" max="7944" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="7945" max="8189" width="7.5546875" style="11"/>
-    <col min="8190" max="8190" width="12.44140625" style="11" customWidth="1"/>
-    <col min="8191" max="8191" width="13.21875" style="11" customWidth="1"/>
-    <col min="8192" max="8192" width="5.21875" style="11" customWidth="1"/>
-    <col min="8193" max="8193" width="13.21875" style="11" customWidth="1"/>
-    <col min="8194" max="8194" width="13" style="11" customWidth="1"/>
-    <col min="8195" max="8195" width="9.77734375" style="11" customWidth="1"/>
-    <col min="8196" max="8196" width="11.77734375" style="11" customWidth="1"/>
-    <col min="8197" max="8200" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="8201" max="8445" width="7.5546875" style="11"/>
-    <col min="8446" max="8446" width="12.44140625" style="11" customWidth="1"/>
-    <col min="8447" max="8447" width="13.21875" style="11" customWidth="1"/>
-    <col min="8448" max="8448" width="5.21875" style="11" customWidth="1"/>
-    <col min="8449" max="8449" width="13.21875" style="11" customWidth="1"/>
-    <col min="8450" max="8450" width="13" style="11" customWidth="1"/>
-    <col min="8451" max="8451" width="9.77734375" style="11" customWidth="1"/>
-    <col min="8452" max="8452" width="11.77734375" style="11" customWidth="1"/>
-    <col min="8453" max="8456" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="8457" max="8701" width="7.5546875" style="11"/>
-    <col min="8702" max="8702" width="12.44140625" style="11" customWidth="1"/>
-    <col min="8703" max="8703" width="13.21875" style="11" customWidth="1"/>
-    <col min="8704" max="8704" width="5.21875" style="11" customWidth="1"/>
-    <col min="8705" max="8705" width="13.21875" style="11" customWidth="1"/>
-    <col min="8706" max="8706" width="13" style="11" customWidth="1"/>
-    <col min="8707" max="8707" width="9.77734375" style="11" customWidth="1"/>
-    <col min="8708" max="8708" width="11.77734375" style="11" customWidth="1"/>
-    <col min="8709" max="8712" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="8713" max="8957" width="7.5546875" style="11"/>
-    <col min="8958" max="8958" width="12.44140625" style="11" customWidth="1"/>
-    <col min="8959" max="8959" width="13.21875" style="11" customWidth="1"/>
-    <col min="8960" max="8960" width="5.21875" style="11" customWidth="1"/>
-    <col min="8961" max="8961" width="13.21875" style="11" customWidth="1"/>
-    <col min="8962" max="8962" width="13" style="11" customWidth="1"/>
-    <col min="8963" max="8963" width="9.77734375" style="11" customWidth="1"/>
-    <col min="8964" max="8964" width="11.77734375" style="11" customWidth="1"/>
-    <col min="8965" max="8968" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="8969" max="9213" width="7.5546875" style="11"/>
-    <col min="9214" max="9214" width="12.44140625" style="11" customWidth="1"/>
-    <col min="9215" max="9215" width="13.21875" style="11" customWidth="1"/>
-    <col min="9216" max="9216" width="5.21875" style="11" customWidth="1"/>
-    <col min="9217" max="9217" width="13.21875" style="11" customWidth="1"/>
-    <col min="9218" max="9218" width="13" style="11" customWidth="1"/>
-    <col min="9219" max="9219" width="9.77734375" style="11" customWidth="1"/>
-    <col min="9220" max="9220" width="11.77734375" style="11" customWidth="1"/>
-    <col min="9221" max="9224" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="9225" max="9469" width="7.5546875" style="11"/>
-    <col min="9470" max="9470" width="12.44140625" style="11" customWidth="1"/>
-    <col min="9471" max="9471" width="13.21875" style="11" customWidth="1"/>
-    <col min="9472" max="9472" width="5.21875" style="11" customWidth="1"/>
-    <col min="9473" max="9473" width="13.21875" style="11" customWidth="1"/>
-    <col min="9474" max="9474" width="13" style="11" customWidth="1"/>
-    <col min="9475" max="9475" width="9.77734375" style="11" customWidth="1"/>
-    <col min="9476" max="9476" width="11.77734375" style="11" customWidth="1"/>
-    <col min="9477" max="9480" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="9481" max="9725" width="7.5546875" style="11"/>
-    <col min="9726" max="9726" width="12.44140625" style="11" customWidth="1"/>
-    <col min="9727" max="9727" width="13.21875" style="11" customWidth="1"/>
-    <col min="9728" max="9728" width="5.21875" style="11" customWidth="1"/>
-    <col min="9729" max="9729" width="13.21875" style="11" customWidth="1"/>
-    <col min="9730" max="9730" width="13" style="11" customWidth="1"/>
-    <col min="9731" max="9731" width="9.77734375" style="11" customWidth="1"/>
-    <col min="9732" max="9732" width="11.77734375" style="11" customWidth="1"/>
-    <col min="9733" max="9736" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="9737" max="9981" width="7.5546875" style="11"/>
-    <col min="9982" max="9982" width="12.44140625" style="11" customWidth="1"/>
-    <col min="9983" max="9983" width="13.21875" style="11" customWidth="1"/>
-    <col min="9984" max="9984" width="5.21875" style="11" customWidth="1"/>
-    <col min="9985" max="9985" width="13.21875" style="11" customWidth="1"/>
-    <col min="9986" max="9986" width="13" style="11" customWidth="1"/>
-    <col min="9987" max="9987" width="9.77734375" style="11" customWidth="1"/>
-    <col min="9988" max="9988" width="11.77734375" style="11" customWidth="1"/>
-    <col min="9989" max="9992" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="9993" max="10237" width="7.5546875" style="11"/>
-    <col min="10238" max="10238" width="12.44140625" style="11" customWidth="1"/>
-    <col min="10239" max="10239" width="13.21875" style="11" customWidth="1"/>
-    <col min="10240" max="10240" width="5.21875" style="11" customWidth="1"/>
-    <col min="10241" max="10241" width="13.21875" style="11" customWidth="1"/>
-    <col min="10242" max="10242" width="13" style="11" customWidth="1"/>
-    <col min="10243" max="10243" width="9.77734375" style="11" customWidth="1"/>
-    <col min="10244" max="10244" width="11.77734375" style="11" customWidth="1"/>
-    <col min="10245" max="10248" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="10249" max="10493" width="7.5546875" style="11"/>
-    <col min="10494" max="10494" width="12.44140625" style="11" customWidth="1"/>
-    <col min="10495" max="10495" width="13.21875" style="11" customWidth="1"/>
-    <col min="10496" max="10496" width="5.21875" style="11" customWidth="1"/>
-    <col min="10497" max="10497" width="13.21875" style="11" customWidth="1"/>
-    <col min="10498" max="10498" width="13" style="11" customWidth="1"/>
-    <col min="10499" max="10499" width="9.77734375" style="11" customWidth="1"/>
-    <col min="10500" max="10500" width="11.77734375" style="11" customWidth="1"/>
-    <col min="10501" max="10504" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="10505" max="10749" width="7.5546875" style="11"/>
-    <col min="10750" max="10750" width="12.44140625" style="11" customWidth="1"/>
-    <col min="10751" max="10751" width="13.21875" style="11" customWidth="1"/>
-    <col min="10752" max="10752" width="5.21875" style="11" customWidth="1"/>
-    <col min="10753" max="10753" width="13.21875" style="11" customWidth="1"/>
-    <col min="10754" max="10754" width="13" style="11" customWidth="1"/>
-    <col min="10755" max="10755" width="9.77734375" style="11" customWidth="1"/>
-    <col min="10756" max="10756" width="11.77734375" style="11" customWidth="1"/>
-    <col min="10757" max="10760" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="10761" max="11005" width="7.5546875" style="11"/>
-    <col min="11006" max="11006" width="12.44140625" style="11" customWidth="1"/>
-    <col min="11007" max="11007" width="13.21875" style="11" customWidth="1"/>
-    <col min="11008" max="11008" width="5.21875" style="11" customWidth="1"/>
-    <col min="11009" max="11009" width="13.21875" style="11" customWidth="1"/>
-    <col min="11010" max="11010" width="13" style="11" customWidth="1"/>
-    <col min="11011" max="11011" width="9.77734375" style="11" customWidth="1"/>
-    <col min="11012" max="11012" width="11.77734375" style="11" customWidth="1"/>
-    <col min="11013" max="11016" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="11017" max="11261" width="7.5546875" style="11"/>
-    <col min="11262" max="11262" width="12.44140625" style="11" customWidth="1"/>
-    <col min="11263" max="11263" width="13.21875" style="11" customWidth="1"/>
-    <col min="11264" max="11264" width="5.21875" style="11" customWidth="1"/>
-    <col min="11265" max="11265" width="13.21875" style="11" customWidth="1"/>
-    <col min="11266" max="11266" width="13" style="11" customWidth="1"/>
-    <col min="11267" max="11267" width="9.77734375" style="11" customWidth="1"/>
-    <col min="11268" max="11268" width="11.77734375" style="11" customWidth="1"/>
-    <col min="11269" max="11272" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="11273" max="11517" width="7.5546875" style="11"/>
-    <col min="11518" max="11518" width="12.44140625" style="11" customWidth="1"/>
-    <col min="11519" max="11519" width="13.21875" style="11" customWidth="1"/>
-    <col min="11520" max="11520" width="5.21875" style="11" customWidth="1"/>
-    <col min="11521" max="11521" width="13.21875" style="11" customWidth="1"/>
-    <col min="11522" max="11522" width="13" style="11" customWidth="1"/>
-    <col min="11523" max="11523" width="9.77734375" style="11" customWidth="1"/>
-    <col min="11524" max="11524" width="11.77734375" style="11" customWidth="1"/>
-    <col min="11525" max="11528" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="11529" max="11773" width="7.5546875" style="11"/>
-    <col min="11774" max="11774" width="12.44140625" style="11" customWidth="1"/>
-    <col min="11775" max="11775" width="13.21875" style="11" customWidth="1"/>
-    <col min="11776" max="11776" width="5.21875" style="11" customWidth="1"/>
-    <col min="11777" max="11777" width="13.21875" style="11" customWidth="1"/>
-    <col min="11778" max="11778" width="13" style="11" customWidth="1"/>
-    <col min="11779" max="11779" width="9.77734375" style="11" customWidth="1"/>
-    <col min="11780" max="11780" width="11.77734375" style="11" customWidth="1"/>
-    <col min="11781" max="11784" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="11785" max="12029" width="7.5546875" style="11"/>
-    <col min="12030" max="12030" width="12.44140625" style="11" customWidth="1"/>
-    <col min="12031" max="12031" width="13.21875" style="11" customWidth="1"/>
-    <col min="12032" max="12032" width="5.21875" style="11" customWidth="1"/>
-    <col min="12033" max="12033" width="13.21875" style="11" customWidth="1"/>
-    <col min="12034" max="12034" width="13" style="11" customWidth="1"/>
-    <col min="12035" max="12035" width="9.77734375" style="11" customWidth="1"/>
-    <col min="12036" max="12036" width="11.77734375" style="11" customWidth="1"/>
-    <col min="12037" max="12040" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="12041" max="12285" width="7.5546875" style="11"/>
-    <col min="12286" max="12286" width="12.44140625" style="11" customWidth="1"/>
-    <col min="12287" max="12287" width="13.21875" style="11" customWidth="1"/>
-    <col min="12288" max="12288" width="5.21875" style="11" customWidth="1"/>
-    <col min="12289" max="12289" width="13.21875" style="11" customWidth="1"/>
-    <col min="12290" max="12290" width="13" style="11" customWidth="1"/>
-    <col min="12291" max="12291" width="9.77734375" style="11" customWidth="1"/>
-    <col min="12292" max="12292" width="11.77734375" style="11" customWidth="1"/>
-    <col min="12293" max="12296" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="12297" max="12541" width="7.5546875" style="11"/>
-    <col min="12542" max="12542" width="12.44140625" style="11" customWidth="1"/>
-    <col min="12543" max="12543" width="13.21875" style="11" customWidth="1"/>
-    <col min="12544" max="12544" width="5.21875" style="11" customWidth="1"/>
-    <col min="12545" max="12545" width="13.21875" style="11" customWidth="1"/>
-    <col min="12546" max="12546" width="13" style="11" customWidth="1"/>
-    <col min="12547" max="12547" width="9.77734375" style="11" customWidth="1"/>
-    <col min="12548" max="12548" width="11.77734375" style="11" customWidth="1"/>
-    <col min="12549" max="12552" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="12553" max="12797" width="7.5546875" style="11"/>
-    <col min="12798" max="12798" width="12.44140625" style="11" customWidth="1"/>
-    <col min="12799" max="12799" width="13.21875" style="11" customWidth="1"/>
-    <col min="12800" max="12800" width="5.21875" style="11" customWidth="1"/>
-    <col min="12801" max="12801" width="13.21875" style="11" customWidth="1"/>
-    <col min="12802" max="12802" width="13" style="11" customWidth="1"/>
-    <col min="12803" max="12803" width="9.77734375" style="11" customWidth="1"/>
-    <col min="12804" max="12804" width="11.77734375" style="11" customWidth="1"/>
-    <col min="12805" max="12808" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="12809" max="13053" width="7.5546875" style="11"/>
-    <col min="13054" max="13054" width="12.44140625" style="11" customWidth="1"/>
-    <col min="13055" max="13055" width="13.21875" style="11" customWidth="1"/>
-    <col min="13056" max="13056" width="5.21875" style="11" customWidth="1"/>
-    <col min="13057" max="13057" width="13.21875" style="11" customWidth="1"/>
-    <col min="13058" max="13058" width="13" style="11" customWidth="1"/>
-    <col min="13059" max="13059" width="9.77734375" style="11" customWidth="1"/>
-    <col min="13060" max="13060" width="11.77734375" style="11" customWidth="1"/>
-    <col min="13061" max="13064" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="13065" max="13309" width="7.5546875" style="11"/>
-    <col min="13310" max="13310" width="12.44140625" style="11" customWidth="1"/>
-    <col min="13311" max="13311" width="13.21875" style="11" customWidth="1"/>
-    <col min="13312" max="13312" width="5.21875" style="11" customWidth="1"/>
-    <col min="13313" max="13313" width="13.21875" style="11" customWidth="1"/>
-    <col min="13314" max="13314" width="13" style="11" customWidth="1"/>
-    <col min="13315" max="13315" width="9.77734375" style="11" customWidth="1"/>
-    <col min="13316" max="13316" width="11.77734375" style="11" customWidth="1"/>
-    <col min="13317" max="13320" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="13321" max="13565" width="7.5546875" style="11"/>
-    <col min="13566" max="13566" width="12.44140625" style="11" customWidth="1"/>
-    <col min="13567" max="13567" width="13.21875" style="11" customWidth="1"/>
-    <col min="13568" max="13568" width="5.21875" style="11" customWidth="1"/>
-    <col min="13569" max="13569" width="13.21875" style="11" customWidth="1"/>
-    <col min="13570" max="13570" width="13" style="11" customWidth="1"/>
-    <col min="13571" max="13571" width="9.77734375" style="11" customWidth="1"/>
-    <col min="13572" max="13572" width="11.77734375" style="11" customWidth="1"/>
-    <col min="13573" max="13576" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="13577" max="13821" width="7.5546875" style="11"/>
-    <col min="13822" max="13822" width="12.44140625" style="11" customWidth="1"/>
-    <col min="13823" max="13823" width="13.21875" style="11" customWidth="1"/>
-    <col min="13824" max="13824" width="5.21875" style="11" customWidth="1"/>
-    <col min="13825" max="13825" width="13.21875" style="11" customWidth="1"/>
-    <col min="13826" max="13826" width="13" style="11" customWidth="1"/>
-    <col min="13827" max="13827" width="9.77734375" style="11" customWidth="1"/>
-    <col min="13828" max="13828" width="11.77734375" style="11" customWidth="1"/>
-    <col min="13829" max="13832" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="13833" max="14077" width="7.5546875" style="11"/>
-    <col min="14078" max="14078" width="12.44140625" style="11" customWidth="1"/>
-    <col min="14079" max="14079" width="13.21875" style="11" customWidth="1"/>
-    <col min="14080" max="14080" width="5.21875" style="11" customWidth="1"/>
-    <col min="14081" max="14081" width="13.21875" style="11" customWidth="1"/>
-    <col min="14082" max="14082" width="13" style="11" customWidth="1"/>
-    <col min="14083" max="14083" width="9.77734375" style="11" customWidth="1"/>
-    <col min="14084" max="14084" width="11.77734375" style="11" customWidth="1"/>
-    <col min="14085" max="14088" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="14089" max="14333" width="7.5546875" style="11"/>
-    <col min="14334" max="14334" width="12.44140625" style="11" customWidth="1"/>
-    <col min="14335" max="14335" width="13.21875" style="11" customWidth="1"/>
-    <col min="14336" max="14336" width="5.21875" style="11" customWidth="1"/>
-    <col min="14337" max="14337" width="13.21875" style="11" customWidth="1"/>
-    <col min="14338" max="14338" width="13" style="11" customWidth="1"/>
-    <col min="14339" max="14339" width="9.77734375" style="11" customWidth="1"/>
-    <col min="14340" max="14340" width="11.77734375" style="11" customWidth="1"/>
-    <col min="14341" max="14344" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="14345" max="14589" width="7.5546875" style="11"/>
-    <col min="14590" max="14590" width="12.44140625" style="11" customWidth="1"/>
-    <col min="14591" max="14591" width="13.21875" style="11" customWidth="1"/>
-    <col min="14592" max="14592" width="5.21875" style="11" customWidth="1"/>
-    <col min="14593" max="14593" width="13.21875" style="11" customWidth="1"/>
-    <col min="14594" max="14594" width="13" style="11" customWidth="1"/>
-    <col min="14595" max="14595" width="9.77734375" style="11" customWidth="1"/>
-    <col min="14596" max="14596" width="11.77734375" style="11" customWidth="1"/>
-    <col min="14597" max="14600" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="14601" max="14845" width="7.5546875" style="11"/>
-    <col min="14846" max="14846" width="12.44140625" style="11" customWidth="1"/>
-    <col min="14847" max="14847" width="13.21875" style="11" customWidth="1"/>
-    <col min="14848" max="14848" width="5.21875" style="11" customWidth="1"/>
-    <col min="14849" max="14849" width="13.21875" style="11" customWidth="1"/>
-    <col min="14850" max="14850" width="13" style="11" customWidth="1"/>
-    <col min="14851" max="14851" width="9.77734375" style="11" customWidth="1"/>
-    <col min="14852" max="14852" width="11.77734375" style="11" customWidth="1"/>
-    <col min="14853" max="14856" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="14857" max="15101" width="7.5546875" style="11"/>
-    <col min="15102" max="15102" width="12.44140625" style="11" customWidth="1"/>
-    <col min="15103" max="15103" width="13.21875" style="11" customWidth="1"/>
-    <col min="15104" max="15104" width="5.21875" style="11" customWidth="1"/>
-    <col min="15105" max="15105" width="13.21875" style="11" customWidth="1"/>
-    <col min="15106" max="15106" width="13" style="11" customWidth="1"/>
-    <col min="15107" max="15107" width="9.77734375" style="11" customWidth="1"/>
-    <col min="15108" max="15108" width="11.77734375" style="11" customWidth="1"/>
-    <col min="15109" max="15112" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="15113" max="15357" width="7.5546875" style="11"/>
-    <col min="15358" max="15358" width="12.44140625" style="11" customWidth="1"/>
-    <col min="15359" max="15359" width="13.21875" style="11" customWidth="1"/>
-    <col min="15360" max="15360" width="5.21875" style="11" customWidth="1"/>
-    <col min="15361" max="15361" width="13.21875" style="11" customWidth="1"/>
-    <col min="15362" max="15362" width="13" style="11" customWidth="1"/>
-    <col min="15363" max="15363" width="9.77734375" style="11" customWidth="1"/>
-    <col min="15364" max="15364" width="11.77734375" style="11" customWidth="1"/>
-    <col min="15365" max="15368" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="15369" max="15613" width="7.5546875" style="11"/>
-    <col min="15614" max="15614" width="12.44140625" style="11" customWidth="1"/>
-    <col min="15615" max="15615" width="13.21875" style="11" customWidth="1"/>
-    <col min="15616" max="15616" width="5.21875" style="11" customWidth="1"/>
-    <col min="15617" max="15617" width="13.21875" style="11" customWidth="1"/>
-    <col min="15618" max="15618" width="13" style="11" customWidth="1"/>
-    <col min="15619" max="15619" width="9.77734375" style="11" customWidth="1"/>
-    <col min="15620" max="15620" width="11.77734375" style="11" customWidth="1"/>
-    <col min="15621" max="15624" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="15625" max="15869" width="7.5546875" style="11"/>
-    <col min="15870" max="15870" width="12.44140625" style="11" customWidth="1"/>
-    <col min="15871" max="15871" width="13.21875" style="11" customWidth="1"/>
-    <col min="15872" max="15872" width="5.21875" style="11" customWidth="1"/>
-    <col min="15873" max="15873" width="13.21875" style="11" customWidth="1"/>
-    <col min="15874" max="15874" width="13" style="11" customWidth="1"/>
-    <col min="15875" max="15875" width="9.77734375" style="11" customWidth="1"/>
-    <col min="15876" max="15876" width="11.77734375" style="11" customWidth="1"/>
-    <col min="15877" max="15880" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="15881" max="16125" width="7.5546875" style="11"/>
-    <col min="16126" max="16126" width="12.44140625" style="11" customWidth="1"/>
-    <col min="16127" max="16127" width="13.21875" style="11" customWidth="1"/>
-    <col min="16128" max="16128" width="5.21875" style="11" customWidth="1"/>
-    <col min="16129" max="16129" width="13.21875" style="11" customWidth="1"/>
-    <col min="16130" max="16130" width="13" style="11" customWidth="1"/>
-    <col min="16131" max="16131" width="9.77734375" style="11" customWidth="1"/>
-    <col min="16132" max="16132" width="11.77734375" style="11" customWidth="1"/>
-    <col min="16133" max="16136" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="16137" max="16384" width="7.5546875" style="11"/>
+    <col min="1" max="1" width="12.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="5.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" style="7" hidden="1" customWidth="1"/>
+    <col min="12" max="253" width="7.5546875" style="7"/>
+    <col min="254" max="254" width="12.44140625" style="7" customWidth="1"/>
+    <col min="255" max="255" width="13.21875" style="7" customWidth="1"/>
+    <col min="256" max="256" width="5.21875" style="7" customWidth="1"/>
+    <col min="257" max="257" width="13.21875" style="7" customWidth="1"/>
+    <col min="258" max="258" width="13" style="7" customWidth="1"/>
+    <col min="259" max="259" width="9.77734375" style="7" customWidth="1"/>
+    <col min="260" max="260" width="11.77734375" style="7" customWidth="1"/>
+    <col min="261" max="264" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="265" max="509" width="7.5546875" style="7"/>
+    <col min="510" max="510" width="12.44140625" style="7" customWidth="1"/>
+    <col min="511" max="511" width="13.21875" style="7" customWidth="1"/>
+    <col min="512" max="512" width="5.21875" style="7" customWidth="1"/>
+    <col min="513" max="513" width="13.21875" style="7" customWidth="1"/>
+    <col min="514" max="514" width="13" style="7" customWidth="1"/>
+    <col min="515" max="515" width="9.77734375" style="7" customWidth="1"/>
+    <col min="516" max="516" width="11.77734375" style="7" customWidth="1"/>
+    <col min="517" max="520" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="521" max="765" width="7.5546875" style="7"/>
+    <col min="766" max="766" width="12.44140625" style="7" customWidth="1"/>
+    <col min="767" max="767" width="13.21875" style="7" customWidth="1"/>
+    <col min="768" max="768" width="5.21875" style="7" customWidth="1"/>
+    <col min="769" max="769" width="13.21875" style="7" customWidth="1"/>
+    <col min="770" max="770" width="13" style="7" customWidth="1"/>
+    <col min="771" max="771" width="9.77734375" style="7" customWidth="1"/>
+    <col min="772" max="772" width="11.77734375" style="7" customWidth="1"/>
+    <col min="773" max="776" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="777" max="1021" width="7.5546875" style="7"/>
+    <col min="1022" max="1022" width="12.44140625" style="7" customWidth="1"/>
+    <col min="1023" max="1023" width="13.21875" style="7" customWidth="1"/>
+    <col min="1024" max="1024" width="5.21875" style="7" customWidth="1"/>
+    <col min="1025" max="1025" width="13.21875" style="7" customWidth="1"/>
+    <col min="1026" max="1026" width="13" style="7" customWidth="1"/>
+    <col min="1027" max="1027" width="9.77734375" style="7" customWidth="1"/>
+    <col min="1028" max="1028" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1029" max="1032" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="1033" max="1277" width="7.5546875" style="7"/>
+    <col min="1278" max="1278" width="12.44140625" style="7" customWidth="1"/>
+    <col min="1279" max="1279" width="13.21875" style="7" customWidth="1"/>
+    <col min="1280" max="1280" width="5.21875" style="7" customWidth="1"/>
+    <col min="1281" max="1281" width="13.21875" style="7" customWidth="1"/>
+    <col min="1282" max="1282" width="13" style="7" customWidth="1"/>
+    <col min="1283" max="1283" width="9.77734375" style="7" customWidth="1"/>
+    <col min="1284" max="1284" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1285" max="1288" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="1289" max="1533" width="7.5546875" style="7"/>
+    <col min="1534" max="1534" width="12.44140625" style="7" customWidth="1"/>
+    <col min="1535" max="1535" width="13.21875" style="7" customWidth="1"/>
+    <col min="1536" max="1536" width="5.21875" style="7" customWidth="1"/>
+    <col min="1537" max="1537" width="13.21875" style="7" customWidth="1"/>
+    <col min="1538" max="1538" width="13" style="7" customWidth="1"/>
+    <col min="1539" max="1539" width="9.77734375" style="7" customWidth="1"/>
+    <col min="1540" max="1540" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1541" max="1544" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="1545" max="1789" width="7.5546875" style="7"/>
+    <col min="1790" max="1790" width="12.44140625" style="7" customWidth="1"/>
+    <col min="1791" max="1791" width="13.21875" style="7" customWidth="1"/>
+    <col min="1792" max="1792" width="5.21875" style="7" customWidth="1"/>
+    <col min="1793" max="1793" width="13.21875" style="7" customWidth="1"/>
+    <col min="1794" max="1794" width="13" style="7" customWidth="1"/>
+    <col min="1795" max="1795" width="9.77734375" style="7" customWidth="1"/>
+    <col min="1796" max="1796" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1797" max="1800" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="1801" max="2045" width="7.5546875" style="7"/>
+    <col min="2046" max="2046" width="12.44140625" style="7" customWidth="1"/>
+    <col min="2047" max="2047" width="13.21875" style="7" customWidth="1"/>
+    <col min="2048" max="2048" width="5.21875" style="7" customWidth="1"/>
+    <col min="2049" max="2049" width="13.21875" style="7" customWidth="1"/>
+    <col min="2050" max="2050" width="13" style="7" customWidth="1"/>
+    <col min="2051" max="2051" width="9.77734375" style="7" customWidth="1"/>
+    <col min="2052" max="2052" width="11.77734375" style="7" customWidth="1"/>
+    <col min="2053" max="2056" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="2057" max="2301" width="7.5546875" style="7"/>
+    <col min="2302" max="2302" width="12.44140625" style="7" customWidth="1"/>
+    <col min="2303" max="2303" width="13.21875" style="7" customWidth="1"/>
+    <col min="2304" max="2304" width="5.21875" style="7" customWidth="1"/>
+    <col min="2305" max="2305" width="13.21875" style="7" customWidth="1"/>
+    <col min="2306" max="2306" width="13" style="7" customWidth="1"/>
+    <col min="2307" max="2307" width="9.77734375" style="7" customWidth="1"/>
+    <col min="2308" max="2308" width="11.77734375" style="7" customWidth="1"/>
+    <col min="2309" max="2312" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="2313" max="2557" width="7.5546875" style="7"/>
+    <col min="2558" max="2558" width="12.44140625" style="7" customWidth="1"/>
+    <col min="2559" max="2559" width="13.21875" style="7" customWidth="1"/>
+    <col min="2560" max="2560" width="5.21875" style="7" customWidth="1"/>
+    <col min="2561" max="2561" width="13.21875" style="7" customWidth="1"/>
+    <col min="2562" max="2562" width="13" style="7" customWidth="1"/>
+    <col min="2563" max="2563" width="9.77734375" style="7" customWidth="1"/>
+    <col min="2564" max="2564" width="11.77734375" style="7" customWidth="1"/>
+    <col min="2565" max="2568" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="2569" max="2813" width="7.5546875" style="7"/>
+    <col min="2814" max="2814" width="12.44140625" style="7" customWidth="1"/>
+    <col min="2815" max="2815" width="13.21875" style="7" customWidth="1"/>
+    <col min="2816" max="2816" width="5.21875" style="7" customWidth="1"/>
+    <col min="2817" max="2817" width="13.21875" style="7" customWidth="1"/>
+    <col min="2818" max="2818" width="13" style="7" customWidth="1"/>
+    <col min="2819" max="2819" width="9.77734375" style="7" customWidth="1"/>
+    <col min="2820" max="2820" width="11.77734375" style="7" customWidth="1"/>
+    <col min="2821" max="2824" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="2825" max="3069" width="7.5546875" style="7"/>
+    <col min="3070" max="3070" width="12.44140625" style="7" customWidth="1"/>
+    <col min="3071" max="3071" width="13.21875" style="7" customWidth="1"/>
+    <col min="3072" max="3072" width="5.21875" style="7" customWidth="1"/>
+    <col min="3073" max="3073" width="13.21875" style="7" customWidth="1"/>
+    <col min="3074" max="3074" width="13" style="7" customWidth="1"/>
+    <col min="3075" max="3075" width="9.77734375" style="7" customWidth="1"/>
+    <col min="3076" max="3076" width="11.77734375" style="7" customWidth="1"/>
+    <col min="3077" max="3080" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="3081" max="3325" width="7.5546875" style="7"/>
+    <col min="3326" max="3326" width="12.44140625" style="7" customWidth="1"/>
+    <col min="3327" max="3327" width="13.21875" style="7" customWidth="1"/>
+    <col min="3328" max="3328" width="5.21875" style="7" customWidth="1"/>
+    <col min="3329" max="3329" width="13.21875" style="7" customWidth="1"/>
+    <col min="3330" max="3330" width="13" style="7" customWidth="1"/>
+    <col min="3331" max="3331" width="9.77734375" style="7" customWidth="1"/>
+    <col min="3332" max="3332" width="11.77734375" style="7" customWidth="1"/>
+    <col min="3333" max="3336" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="3337" max="3581" width="7.5546875" style="7"/>
+    <col min="3582" max="3582" width="12.44140625" style="7" customWidth="1"/>
+    <col min="3583" max="3583" width="13.21875" style="7" customWidth="1"/>
+    <col min="3584" max="3584" width="5.21875" style="7" customWidth="1"/>
+    <col min="3585" max="3585" width="13.21875" style="7" customWidth="1"/>
+    <col min="3586" max="3586" width="13" style="7" customWidth="1"/>
+    <col min="3587" max="3587" width="9.77734375" style="7" customWidth="1"/>
+    <col min="3588" max="3588" width="11.77734375" style="7" customWidth="1"/>
+    <col min="3589" max="3592" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="3593" max="3837" width="7.5546875" style="7"/>
+    <col min="3838" max="3838" width="12.44140625" style="7" customWidth="1"/>
+    <col min="3839" max="3839" width="13.21875" style="7" customWidth="1"/>
+    <col min="3840" max="3840" width="5.21875" style="7" customWidth="1"/>
+    <col min="3841" max="3841" width="13.21875" style="7" customWidth="1"/>
+    <col min="3842" max="3842" width="13" style="7" customWidth="1"/>
+    <col min="3843" max="3843" width="9.77734375" style="7" customWidth="1"/>
+    <col min="3844" max="3844" width="11.77734375" style="7" customWidth="1"/>
+    <col min="3845" max="3848" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="3849" max="4093" width="7.5546875" style="7"/>
+    <col min="4094" max="4094" width="12.44140625" style="7" customWidth="1"/>
+    <col min="4095" max="4095" width="13.21875" style="7" customWidth="1"/>
+    <col min="4096" max="4096" width="5.21875" style="7" customWidth="1"/>
+    <col min="4097" max="4097" width="13.21875" style="7" customWidth="1"/>
+    <col min="4098" max="4098" width="13" style="7" customWidth="1"/>
+    <col min="4099" max="4099" width="9.77734375" style="7" customWidth="1"/>
+    <col min="4100" max="4100" width="11.77734375" style="7" customWidth="1"/>
+    <col min="4101" max="4104" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="4105" max="4349" width="7.5546875" style="7"/>
+    <col min="4350" max="4350" width="12.44140625" style="7" customWidth="1"/>
+    <col min="4351" max="4351" width="13.21875" style="7" customWidth="1"/>
+    <col min="4352" max="4352" width="5.21875" style="7" customWidth="1"/>
+    <col min="4353" max="4353" width="13.21875" style="7" customWidth="1"/>
+    <col min="4354" max="4354" width="13" style="7" customWidth="1"/>
+    <col min="4355" max="4355" width="9.77734375" style="7" customWidth="1"/>
+    <col min="4356" max="4356" width="11.77734375" style="7" customWidth="1"/>
+    <col min="4357" max="4360" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="4361" max="4605" width="7.5546875" style="7"/>
+    <col min="4606" max="4606" width="12.44140625" style="7" customWidth="1"/>
+    <col min="4607" max="4607" width="13.21875" style="7" customWidth="1"/>
+    <col min="4608" max="4608" width="5.21875" style="7" customWidth="1"/>
+    <col min="4609" max="4609" width="13.21875" style="7" customWidth="1"/>
+    <col min="4610" max="4610" width="13" style="7" customWidth="1"/>
+    <col min="4611" max="4611" width="9.77734375" style="7" customWidth="1"/>
+    <col min="4612" max="4612" width="11.77734375" style="7" customWidth="1"/>
+    <col min="4613" max="4616" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="4617" max="4861" width="7.5546875" style="7"/>
+    <col min="4862" max="4862" width="12.44140625" style="7" customWidth="1"/>
+    <col min="4863" max="4863" width="13.21875" style="7" customWidth="1"/>
+    <col min="4864" max="4864" width="5.21875" style="7" customWidth="1"/>
+    <col min="4865" max="4865" width="13.21875" style="7" customWidth="1"/>
+    <col min="4866" max="4866" width="13" style="7" customWidth="1"/>
+    <col min="4867" max="4867" width="9.77734375" style="7" customWidth="1"/>
+    <col min="4868" max="4868" width="11.77734375" style="7" customWidth="1"/>
+    <col min="4869" max="4872" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="4873" max="5117" width="7.5546875" style="7"/>
+    <col min="5118" max="5118" width="12.44140625" style="7" customWidth="1"/>
+    <col min="5119" max="5119" width="13.21875" style="7" customWidth="1"/>
+    <col min="5120" max="5120" width="5.21875" style="7" customWidth="1"/>
+    <col min="5121" max="5121" width="13.21875" style="7" customWidth="1"/>
+    <col min="5122" max="5122" width="13" style="7" customWidth="1"/>
+    <col min="5123" max="5123" width="9.77734375" style="7" customWidth="1"/>
+    <col min="5124" max="5124" width="11.77734375" style="7" customWidth="1"/>
+    <col min="5125" max="5128" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="5129" max="5373" width="7.5546875" style="7"/>
+    <col min="5374" max="5374" width="12.44140625" style="7" customWidth="1"/>
+    <col min="5375" max="5375" width="13.21875" style="7" customWidth="1"/>
+    <col min="5376" max="5376" width="5.21875" style="7" customWidth="1"/>
+    <col min="5377" max="5377" width="13.21875" style="7" customWidth="1"/>
+    <col min="5378" max="5378" width="13" style="7" customWidth="1"/>
+    <col min="5379" max="5379" width="9.77734375" style="7" customWidth="1"/>
+    <col min="5380" max="5380" width="11.77734375" style="7" customWidth="1"/>
+    <col min="5381" max="5384" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="5385" max="5629" width="7.5546875" style="7"/>
+    <col min="5630" max="5630" width="12.44140625" style="7" customWidth="1"/>
+    <col min="5631" max="5631" width="13.21875" style="7" customWidth="1"/>
+    <col min="5632" max="5632" width="5.21875" style="7" customWidth="1"/>
+    <col min="5633" max="5633" width="13.21875" style="7" customWidth="1"/>
+    <col min="5634" max="5634" width="13" style="7" customWidth="1"/>
+    <col min="5635" max="5635" width="9.77734375" style="7" customWidth="1"/>
+    <col min="5636" max="5636" width="11.77734375" style="7" customWidth="1"/>
+    <col min="5637" max="5640" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="5641" max="5885" width="7.5546875" style="7"/>
+    <col min="5886" max="5886" width="12.44140625" style="7" customWidth="1"/>
+    <col min="5887" max="5887" width="13.21875" style="7" customWidth="1"/>
+    <col min="5888" max="5888" width="5.21875" style="7" customWidth="1"/>
+    <col min="5889" max="5889" width="13.21875" style="7" customWidth="1"/>
+    <col min="5890" max="5890" width="13" style="7" customWidth="1"/>
+    <col min="5891" max="5891" width="9.77734375" style="7" customWidth="1"/>
+    <col min="5892" max="5892" width="11.77734375" style="7" customWidth="1"/>
+    <col min="5893" max="5896" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="5897" max="6141" width="7.5546875" style="7"/>
+    <col min="6142" max="6142" width="12.44140625" style="7" customWidth="1"/>
+    <col min="6143" max="6143" width="13.21875" style="7" customWidth="1"/>
+    <col min="6144" max="6144" width="5.21875" style="7" customWidth="1"/>
+    <col min="6145" max="6145" width="13.21875" style="7" customWidth="1"/>
+    <col min="6146" max="6146" width="13" style="7" customWidth="1"/>
+    <col min="6147" max="6147" width="9.77734375" style="7" customWidth="1"/>
+    <col min="6148" max="6148" width="11.77734375" style="7" customWidth="1"/>
+    <col min="6149" max="6152" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="6153" max="6397" width="7.5546875" style="7"/>
+    <col min="6398" max="6398" width="12.44140625" style="7" customWidth="1"/>
+    <col min="6399" max="6399" width="13.21875" style="7" customWidth="1"/>
+    <col min="6400" max="6400" width="5.21875" style="7" customWidth="1"/>
+    <col min="6401" max="6401" width="13.21875" style="7" customWidth="1"/>
+    <col min="6402" max="6402" width="13" style="7" customWidth="1"/>
+    <col min="6403" max="6403" width="9.77734375" style="7" customWidth="1"/>
+    <col min="6404" max="6404" width="11.77734375" style="7" customWidth="1"/>
+    <col min="6405" max="6408" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="6409" max="6653" width="7.5546875" style="7"/>
+    <col min="6654" max="6654" width="12.44140625" style="7" customWidth="1"/>
+    <col min="6655" max="6655" width="13.21875" style="7" customWidth="1"/>
+    <col min="6656" max="6656" width="5.21875" style="7" customWidth="1"/>
+    <col min="6657" max="6657" width="13.21875" style="7" customWidth="1"/>
+    <col min="6658" max="6658" width="13" style="7" customWidth="1"/>
+    <col min="6659" max="6659" width="9.77734375" style="7" customWidth="1"/>
+    <col min="6660" max="6660" width="11.77734375" style="7" customWidth="1"/>
+    <col min="6661" max="6664" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="6665" max="6909" width="7.5546875" style="7"/>
+    <col min="6910" max="6910" width="12.44140625" style="7" customWidth="1"/>
+    <col min="6911" max="6911" width="13.21875" style="7" customWidth="1"/>
+    <col min="6912" max="6912" width="5.21875" style="7" customWidth="1"/>
+    <col min="6913" max="6913" width="13.21875" style="7" customWidth="1"/>
+    <col min="6914" max="6914" width="13" style="7" customWidth="1"/>
+    <col min="6915" max="6915" width="9.77734375" style="7" customWidth="1"/>
+    <col min="6916" max="6916" width="11.77734375" style="7" customWidth="1"/>
+    <col min="6917" max="6920" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="6921" max="7165" width="7.5546875" style="7"/>
+    <col min="7166" max="7166" width="12.44140625" style="7" customWidth="1"/>
+    <col min="7167" max="7167" width="13.21875" style="7" customWidth="1"/>
+    <col min="7168" max="7168" width="5.21875" style="7" customWidth="1"/>
+    <col min="7169" max="7169" width="13.21875" style="7" customWidth="1"/>
+    <col min="7170" max="7170" width="13" style="7" customWidth="1"/>
+    <col min="7171" max="7171" width="9.77734375" style="7" customWidth="1"/>
+    <col min="7172" max="7172" width="11.77734375" style="7" customWidth="1"/>
+    <col min="7173" max="7176" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="7177" max="7421" width="7.5546875" style="7"/>
+    <col min="7422" max="7422" width="12.44140625" style="7" customWidth="1"/>
+    <col min="7423" max="7423" width="13.21875" style="7" customWidth="1"/>
+    <col min="7424" max="7424" width="5.21875" style="7" customWidth="1"/>
+    <col min="7425" max="7425" width="13.21875" style="7" customWidth="1"/>
+    <col min="7426" max="7426" width="13" style="7" customWidth="1"/>
+    <col min="7427" max="7427" width="9.77734375" style="7" customWidth="1"/>
+    <col min="7428" max="7428" width="11.77734375" style="7" customWidth="1"/>
+    <col min="7429" max="7432" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="7433" max="7677" width="7.5546875" style="7"/>
+    <col min="7678" max="7678" width="12.44140625" style="7" customWidth="1"/>
+    <col min="7679" max="7679" width="13.21875" style="7" customWidth="1"/>
+    <col min="7680" max="7680" width="5.21875" style="7" customWidth="1"/>
+    <col min="7681" max="7681" width="13.21875" style="7" customWidth="1"/>
+    <col min="7682" max="7682" width="13" style="7" customWidth="1"/>
+    <col min="7683" max="7683" width="9.77734375" style="7" customWidth="1"/>
+    <col min="7684" max="7684" width="11.77734375" style="7" customWidth="1"/>
+    <col min="7685" max="7688" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="7689" max="7933" width="7.5546875" style="7"/>
+    <col min="7934" max="7934" width="12.44140625" style="7" customWidth="1"/>
+    <col min="7935" max="7935" width="13.21875" style="7" customWidth="1"/>
+    <col min="7936" max="7936" width="5.21875" style="7" customWidth="1"/>
+    <col min="7937" max="7937" width="13.21875" style="7" customWidth="1"/>
+    <col min="7938" max="7938" width="13" style="7" customWidth="1"/>
+    <col min="7939" max="7939" width="9.77734375" style="7" customWidth="1"/>
+    <col min="7940" max="7940" width="11.77734375" style="7" customWidth="1"/>
+    <col min="7941" max="7944" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="7945" max="8189" width="7.5546875" style="7"/>
+    <col min="8190" max="8190" width="12.44140625" style="7" customWidth="1"/>
+    <col min="8191" max="8191" width="13.21875" style="7" customWidth="1"/>
+    <col min="8192" max="8192" width="5.21875" style="7" customWidth="1"/>
+    <col min="8193" max="8193" width="13.21875" style="7" customWidth="1"/>
+    <col min="8194" max="8194" width="13" style="7" customWidth="1"/>
+    <col min="8195" max="8195" width="9.77734375" style="7" customWidth="1"/>
+    <col min="8196" max="8196" width="11.77734375" style="7" customWidth="1"/>
+    <col min="8197" max="8200" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="8201" max="8445" width="7.5546875" style="7"/>
+    <col min="8446" max="8446" width="12.44140625" style="7" customWidth="1"/>
+    <col min="8447" max="8447" width="13.21875" style="7" customWidth="1"/>
+    <col min="8448" max="8448" width="5.21875" style="7" customWidth="1"/>
+    <col min="8449" max="8449" width="13.21875" style="7" customWidth="1"/>
+    <col min="8450" max="8450" width="13" style="7" customWidth="1"/>
+    <col min="8451" max="8451" width="9.77734375" style="7" customWidth="1"/>
+    <col min="8452" max="8452" width="11.77734375" style="7" customWidth="1"/>
+    <col min="8453" max="8456" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="8457" max="8701" width="7.5546875" style="7"/>
+    <col min="8702" max="8702" width="12.44140625" style="7" customWidth="1"/>
+    <col min="8703" max="8703" width="13.21875" style="7" customWidth="1"/>
+    <col min="8704" max="8704" width="5.21875" style="7" customWidth="1"/>
+    <col min="8705" max="8705" width="13.21875" style="7" customWidth="1"/>
+    <col min="8706" max="8706" width="13" style="7" customWidth="1"/>
+    <col min="8707" max="8707" width="9.77734375" style="7" customWidth="1"/>
+    <col min="8708" max="8708" width="11.77734375" style="7" customWidth="1"/>
+    <col min="8709" max="8712" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="8713" max="8957" width="7.5546875" style="7"/>
+    <col min="8958" max="8958" width="12.44140625" style="7" customWidth="1"/>
+    <col min="8959" max="8959" width="13.21875" style="7" customWidth="1"/>
+    <col min="8960" max="8960" width="5.21875" style="7" customWidth="1"/>
+    <col min="8961" max="8961" width="13.21875" style="7" customWidth="1"/>
+    <col min="8962" max="8962" width="13" style="7" customWidth="1"/>
+    <col min="8963" max="8963" width="9.77734375" style="7" customWidth="1"/>
+    <col min="8964" max="8964" width="11.77734375" style="7" customWidth="1"/>
+    <col min="8965" max="8968" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="8969" max="9213" width="7.5546875" style="7"/>
+    <col min="9214" max="9214" width="12.44140625" style="7" customWidth="1"/>
+    <col min="9215" max="9215" width="13.21875" style="7" customWidth="1"/>
+    <col min="9216" max="9216" width="5.21875" style="7" customWidth="1"/>
+    <col min="9217" max="9217" width="13.21875" style="7" customWidth="1"/>
+    <col min="9218" max="9218" width="13" style="7" customWidth="1"/>
+    <col min="9219" max="9219" width="9.77734375" style="7" customWidth="1"/>
+    <col min="9220" max="9220" width="11.77734375" style="7" customWidth="1"/>
+    <col min="9221" max="9224" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="9225" max="9469" width="7.5546875" style="7"/>
+    <col min="9470" max="9470" width="12.44140625" style="7" customWidth="1"/>
+    <col min="9471" max="9471" width="13.21875" style="7" customWidth="1"/>
+    <col min="9472" max="9472" width="5.21875" style="7" customWidth="1"/>
+    <col min="9473" max="9473" width="13.21875" style="7" customWidth="1"/>
+    <col min="9474" max="9474" width="13" style="7" customWidth="1"/>
+    <col min="9475" max="9475" width="9.77734375" style="7" customWidth="1"/>
+    <col min="9476" max="9476" width="11.77734375" style="7" customWidth="1"/>
+    <col min="9477" max="9480" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="9481" max="9725" width="7.5546875" style="7"/>
+    <col min="9726" max="9726" width="12.44140625" style="7" customWidth="1"/>
+    <col min="9727" max="9727" width="13.21875" style="7" customWidth="1"/>
+    <col min="9728" max="9728" width="5.21875" style="7" customWidth="1"/>
+    <col min="9729" max="9729" width="13.21875" style="7" customWidth="1"/>
+    <col min="9730" max="9730" width="13" style="7" customWidth="1"/>
+    <col min="9731" max="9731" width="9.77734375" style="7" customWidth="1"/>
+    <col min="9732" max="9732" width="11.77734375" style="7" customWidth="1"/>
+    <col min="9733" max="9736" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="9737" max="9981" width="7.5546875" style="7"/>
+    <col min="9982" max="9982" width="12.44140625" style="7" customWidth="1"/>
+    <col min="9983" max="9983" width="13.21875" style="7" customWidth="1"/>
+    <col min="9984" max="9984" width="5.21875" style="7" customWidth="1"/>
+    <col min="9985" max="9985" width="13.21875" style="7" customWidth="1"/>
+    <col min="9986" max="9986" width="13" style="7" customWidth="1"/>
+    <col min="9987" max="9987" width="9.77734375" style="7" customWidth="1"/>
+    <col min="9988" max="9988" width="11.77734375" style="7" customWidth="1"/>
+    <col min="9989" max="9992" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="9993" max="10237" width="7.5546875" style="7"/>
+    <col min="10238" max="10238" width="12.44140625" style="7" customWidth="1"/>
+    <col min="10239" max="10239" width="13.21875" style="7" customWidth="1"/>
+    <col min="10240" max="10240" width="5.21875" style="7" customWidth="1"/>
+    <col min="10241" max="10241" width="13.21875" style="7" customWidth="1"/>
+    <col min="10242" max="10242" width="13" style="7" customWidth="1"/>
+    <col min="10243" max="10243" width="9.77734375" style="7" customWidth="1"/>
+    <col min="10244" max="10244" width="11.77734375" style="7" customWidth="1"/>
+    <col min="10245" max="10248" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="10249" max="10493" width="7.5546875" style="7"/>
+    <col min="10494" max="10494" width="12.44140625" style="7" customWidth="1"/>
+    <col min="10495" max="10495" width="13.21875" style="7" customWidth="1"/>
+    <col min="10496" max="10496" width="5.21875" style="7" customWidth="1"/>
+    <col min="10497" max="10497" width="13.21875" style="7" customWidth="1"/>
+    <col min="10498" max="10498" width="13" style="7" customWidth="1"/>
+    <col min="10499" max="10499" width="9.77734375" style="7" customWidth="1"/>
+    <col min="10500" max="10500" width="11.77734375" style="7" customWidth="1"/>
+    <col min="10501" max="10504" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="10505" max="10749" width="7.5546875" style="7"/>
+    <col min="10750" max="10750" width="12.44140625" style="7" customWidth="1"/>
+    <col min="10751" max="10751" width="13.21875" style="7" customWidth="1"/>
+    <col min="10752" max="10752" width="5.21875" style="7" customWidth="1"/>
+    <col min="10753" max="10753" width="13.21875" style="7" customWidth="1"/>
+    <col min="10754" max="10754" width="13" style="7" customWidth="1"/>
+    <col min="10755" max="10755" width="9.77734375" style="7" customWidth="1"/>
+    <col min="10756" max="10756" width="11.77734375" style="7" customWidth="1"/>
+    <col min="10757" max="10760" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="10761" max="11005" width="7.5546875" style="7"/>
+    <col min="11006" max="11006" width="12.44140625" style="7" customWidth="1"/>
+    <col min="11007" max="11007" width="13.21875" style="7" customWidth="1"/>
+    <col min="11008" max="11008" width="5.21875" style="7" customWidth="1"/>
+    <col min="11009" max="11009" width="13.21875" style="7" customWidth="1"/>
+    <col min="11010" max="11010" width="13" style="7" customWidth="1"/>
+    <col min="11011" max="11011" width="9.77734375" style="7" customWidth="1"/>
+    <col min="11012" max="11012" width="11.77734375" style="7" customWidth="1"/>
+    <col min="11013" max="11016" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="11017" max="11261" width="7.5546875" style="7"/>
+    <col min="11262" max="11262" width="12.44140625" style="7" customWidth="1"/>
+    <col min="11263" max="11263" width="13.21875" style="7" customWidth="1"/>
+    <col min="11264" max="11264" width="5.21875" style="7" customWidth="1"/>
+    <col min="11265" max="11265" width="13.21875" style="7" customWidth="1"/>
+    <col min="11266" max="11266" width="13" style="7" customWidth="1"/>
+    <col min="11267" max="11267" width="9.77734375" style="7" customWidth="1"/>
+    <col min="11268" max="11268" width="11.77734375" style="7" customWidth="1"/>
+    <col min="11269" max="11272" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="11273" max="11517" width="7.5546875" style="7"/>
+    <col min="11518" max="11518" width="12.44140625" style="7" customWidth="1"/>
+    <col min="11519" max="11519" width="13.21875" style="7" customWidth="1"/>
+    <col min="11520" max="11520" width="5.21875" style="7" customWidth="1"/>
+    <col min="11521" max="11521" width="13.21875" style="7" customWidth="1"/>
+    <col min="11522" max="11522" width="13" style="7" customWidth="1"/>
+    <col min="11523" max="11523" width="9.77734375" style="7" customWidth="1"/>
+    <col min="11524" max="11524" width="11.77734375" style="7" customWidth="1"/>
+    <col min="11525" max="11528" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="11529" max="11773" width="7.5546875" style="7"/>
+    <col min="11774" max="11774" width="12.44140625" style="7" customWidth="1"/>
+    <col min="11775" max="11775" width="13.21875" style="7" customWidth="1"/>
+    <col min="11776" max="11776" width="5.21875" style="7" customWidth="1"/>
+    <col min="11777" max="11777" width="13.21875" style="7" customWidth="1"/>
+    <col min="11778" max="11778" width="13" style="7" customWidth="1"/>
+    <col min="11779" max="11779" width="9.77734375" style="7" customWidth="1"/>
+    <col min="11780" max="11780" width="11.77734375" style="7" customWidth="1"/>
+    <col min="11781" max="11784" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="11785" max="12029" width="7.5546875" style="7"/>
+    <col min="12030" max="12030" width="12.44140625" style="7" customWidth="1"/>
+    <col min="12031" max="12031" width="13.21875" style="7" customWidth="1"/>
+    <col min="12032" max="12032" width="5.21875" style="7" customWidth="1"/>
+    <col min="12033" max="12033" width="13.21875" style="7" customWidth="1"/>
+    <col min="12034" max="12034" width="13" style="7" customWidth="1"/>
+    <col min="12035" max="12035" width="9.77734375" style="7" customWidth="1"/>
+    <col min="12036" max="12036" width="11.77734375" style="7" customWidth="1"/>
+    <col min="12037" max="12040" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="12041" max="12285" width="7.5546875" style="7"/>
+    <col min="12286" max="12286" width="12.44140625" style="7" customWidth="1"/>
+    <col min="12287" max="12287" width="13.21875" style="7" customWidth="1"/>
+    <col min="12288" max="12288" width="5.21875" style="7" customWidth="1"/>
+    <col min="12289" max="12289" width="13.21875" style="7" customWidth="1"/>
+    <col min="12290" max="12290" width="13" style="7" customWidth="1"/>
+    <col min="12291" max="12291" width="9.77734375" style="7" customWidth="1"/>
+    <col min="12292" max="12292" width="11.77734375" style="7" customWidth="1"/>
+    <col min="12293" max="12296" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="12297" max="12541" width="7.5546875" style="7"/>
+    <col min="12542" max="12542" width="12.44140625" style="7" customWidth="1"/>
+    <col min="12543" max="12543" width="13.21875" style="7" customWidth="1"/>
+    <col min="12544" max="12544" width="5.21875" style="7" customWidth="1"/>
+    <col min="12545" max="12545" width="13.21875" style="7" customWidth="1"/>
+    <col min="12546" max="12546" width="13" style="7" customWidth="1"/>
+    <col min="12547" max="12547" width="9.77734375" style="7" customWidth="1"/>
+    <col min="12548" max="12548" width="11.77734375" style="7" customWidth="1"/>
+    <col min="12549" max="12552" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="12553" max="12797" width="7.5546875" style="7"/>
+    <col min="12798" max="12798" width="12.44140625" style="7" customWidth="1"/>
+    <col min="12799" max="12799" width="13.21875" style="7" customWidth="1"/>
+    <col min="12800" max="12800" width="5.21875" style="7" customWidth="1"/>
+    <col min="12801" max="12801" width="13.21875" style="7" customWidth="1"/>
+    <col min="12802" max="12802" width="13" style="7" customWidth="1"/>
+    <col min="12803" max="12803" width="9.77734375" style="7" customWidth="1"/>
+    <col min="12804" max="12804" width="11.77734375" style="7" customWidth="1"/>
+    <col min="12805" max="12808" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="12809" max="13053" width="7.5546875" style="7"/>
+    <col min="13054" max="13054" width="12.44140625" style="7" customWidth="1"/>
+    <col min="13055" max="13055" width="13.21875" style="7" customWidth="1"/>
+    <col min="13056" max="13056" width="5.21875" style="7" customWidth="1"/>
+    <col min="13057" max="13057" width="13.21875" style="7" customWidth="1"/>
+    <col min="13058" max="13058" width="13" style="7" customWidth="1"/>
+    <col min="13059" max="13059" width="9.77734375" style="7" customWidth="1"/>
+    <col min="13060" max="13060" width="11.77734375" style="7" customWidth="1"/>
+    <col min="13061" max="13064" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="13065" max="13309" width="7.5546875" style="7"/>
+    <col min="13310" max="13310" width="12.44140625" style="7" customWidth="1"/>
+    <col min="13311" max="13311" width="13.21875" style="7" customWidth="1"/>
+    <col min="13312" max="13312" width="5.21875" style="7" customWidth="1"/>
+    <col min="13313" max="13313" width="13.21875" style="7" customWidth="1"/>
+    <col min="13314" max="13314" width="13" style="7" customWidth="1"/>
+    <col min="13315" max="13315" width="9.77734375" style="7" customWidth="1"/>
+    <col min="13316" max="13316" width="11.77734375" style="7" customWidth="1"/>
+    <col min="13317" max="13320" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="13321" max="13565" width="7.5546875" style="7"/>
+    <col min="13566" max="13566" width="12.44140625" style="7" customWidth="1"/>
+    <col min="13567" max="13567" width="13.21875" style="7" customWidth="1"/>
+    <col min="13568" max="13568" width="5.21875" style="7" customWidth="1"/>
+    <col min="13569" max="13569" width="13.21875" style="7" customWidth="1"/>
+    <col min="13570" max="13570" width="13" style="7" customWidth="1"/>
+    <col min="13571" max="13571" width="9.77734375" style="7" customWidth="1"/>
+    <col min="13572" max="13572" width="11.77734375" style="7" customWidth="1"/>
+    <col min="13573" max="13576" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="13577" max="13821" width="7.5546875" style="7"/>
+    <col min="13822" max="13822" width="12.44140625" style="7" customWidth="1"/>
+    <col min="13823" max="13823" width="13.21875" style="7" customWidth="1"/>
+    <col min="13824" max="13824" width="5.21875" style="7" customWidth="1"/>
+    <col min="13825" max="13825" width="13.21875" style="7" customWidth="1"/>
+    <col min="13826" max="13826" width="13" style="7" customWidth="1"/>
+    <col min="13827" max="13827" width="9.77734375" style="7" customWidth="1"/>
+    <col min="13828" max="13828" width="11.77734375" style="7" customWidth="1"/>
+    <col min="13829" max="13832" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="13833" max="14077" width="7.5546875" style="7"/>
+    <col min="14078" max="14078" width="12.44140625" style="7" customWidth="1"/>
+    <col min="14079" max="14079" width="13.21875" style="7" customWidth="1"/>
+    <col min="14080" max="14080" width="5.21875" style="7" customWidth="1"/>
+    <col min="14081" max="14081" width="13.21875" style="7" customWidth="1"/>
+    <col min="14082" max="14082" width="13" style="7" customWidth="1"/>
+    <col min="14083" max="14083" width="9.77734375" style="7" customWidth="1"/>
+    <col min="14084" max="14084" width="11.77734375" style="7" customWidth="1"/>
+    <col min="14085" max="14088" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="14089" max="14333" width="7.5546875" style="7"/>
+    <col min="14334" max="14334" width="12.44140625" style="7" customWidth="1"/>
+    <col min="14335" max="14335" width="13.21875" style="7" customWidth="1"/>
+    <col min="14336" max="14336" width="5.21875" style="7" customWidth="1"/>
+    <col min="14337" max="14337" width="13.21875" style="7" customWidth="1"/>
+    <col min="14338" max="14338" width="13" style="7" customWidth="1"/>
+    <col min="14339" max="14339" width="9.77734375" style="7" customWidth="1"/>
+    <col min="14340" max="14340" width="11.77734375" style="7" customWidth="1"/>
+    <col min="14341" max="14344" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="14345" max="14589" width="7.5546875" style="7"/>
+    <col min="14590" max="14590" width="12.44140625" style="7" customWidth="1"/>
+    <col min="14591" max="14591" width="13.21875" style="7" customWidth="1"/>
+    <col min="14592" max="14592" width="5.21875" style="7" customWidth="1"/>
+    <col min="14593" max="14593" width="13.21875" style="7" customWidth="1"/>
+    <col min="14594" max="14594" width="13" style="7" customWidth="1"/>
+    <col min="14595" max="14595" width="9.77734375" style="7" customWidth="1"/>
+    <col min="14596" max="14596" width="11.77734375" style="7" customWidth="1"/>
+    <col min="14597" max="14600" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="14601" max="14845" width="7.5546875" style="7"/>
+    <col min="14846" max="14846" width="12.44140625" style="7" customWidth="1"/>
+    <col min="14847" max="14847" width="13.21875" style="7" customWidth="1"/>
+    <col min="14848" max="14848" width="5.21875" style="7" customWidth="1"/>
+    <col min="14849" max="14849" width="13.21875" style="7" customWidth="1"/>
+    <col min="14850" max="14850" width="13" style="7" customWidth="1"/>
+    <col min="14851" max="14851" width="9.77734375" style="7" customWidth="1"/>
+    <col min="14852" max="14852" width="11.77734375" style="7" customWidth="1"/>
+    <col min="14853" max="14856" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="14857" max="15101" width="7.5546875" style="7"/>
+    <col min="15102" max="15102" width="12.44140625" style="7" customWidth="1"/>
+    <col min="15103" max="15103" width="13.21875" style="7" customWidth="1"/>
+    <col min="15104" max="15104" width="5.21875" style="7" customWidth="1"/>
+    <col min="15105" max="15105" width="13.21875" style="7" customWidth="1"/>
+    <col min="15106" max="15106" width="13" style="7" customWidth="1"/>
+    <col min="15107" max="15107" width="9.77734375" style="7" customWidth="1"/>
+    <col min="15108" max="15108" width="11.77734375" style="7" customWidth="1"/>
+    <col min="15109" max="15112" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="15113" max="15357" width="7.5546875" style="7"/>
+    <col min="15358" max="15358" width="12.44140625" style="7" customWidth="1"/>
+    <col min="15359" max="15359" width="13.21875" style="7" customWidth="1"/>
+    <col min="15360" max="15360" width="5.21875" style="7" customWidth="1"/>
+    <col min="15361" max="15361" width="13.21875" style="7" customWidth="1"/>
+    <col min="15362" max="15362" width="13" style="7" customWidth="1"/>
+    <col min="15363" max="15363" width="9.77734375" style="7" customWidth="1"/>
+    <col min="15364" max="15364" width="11.77734375" style="7" customWidth="1"/>
+    <col min="15365" max="15368" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="15369" max="15613" width="7.5546875" style="7"/>
+    <col min="15614" max="15614" width="12.44140625" style="7" customWidth="1"/>
+    <col min="15615" max="15615" width="13.21875" style="7" customWidth="1"/>
+    <col min="15616" max="15616" width="5.21875" style="7" customWidth="1"/>
+    <col min="15617" max="15617" width="13.21875" style="7" customWidth="1"/>
+    <col min="15618" max="15618" width="13" style="7" customWidth="1"/>
+    <col min="15619" max="15619" width="9.77734375" style="7" customWidth="1"/>
+    <col min="15620" max="15620" width="11.77734375" style="7" customWidth="1"/>
+    <col min="15621" max="15624" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="15625" max="15869" width="7.5546875" style="7"/>
+    <col min="15870" max="15870" width="12.44140625" style="7" customWidth="1"/>
+    <col min="15871" max="15871" width="13.21875" style="7" customWidth="1"/>
+    <col min="15872" max="15872" width="5.21875" style="7" customWidth="1"/>
+    <col min="15873" max="15873" width="13.21875" style="7" customWidth="1"/>
+    <col min="15874" max="15874" width="13" style="7" customWidth="1"/>
+    <col min="15875" max="15875" width="9.77734375" style="7" customWidth="1"/>
+    <col min="15876" max="15876" width="11.77734375" style="7" customWidth="1"/>
+    <col min="15877" max="15880" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="15881" max="16125" width="7.5546875" style="7"/>
+    <col min="16126" max="16126" width="12.44140625" style="7" customWidth="1"/>
+    <col min="16127" max="16127" width="13.21875" style="7" customWidth="1"/>
+    <col min="16128" max="16128" width="5.21875" style="7" customWidth="1"/>
+    <col min="16129" max="16129" width="13.21875" style="7" customWidth="1"/>
+    <col min="16130" max="16130" width="13" style="7" customWidth="1"/>
+    <col min="16131" max="16131" width="9.77734375" style="7" customWidth="1"/>
+    <col min="16132" max="16132" width="11.77734375" style="7" customWidth="1"/>
+    <col min="16133" max="16136" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="16137" max="16384" width="7.5546875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1">
@@ -1573,211 +1579,211 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="27.15" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="E11" s="14" t="s">
+      <c r="B11" s="9"/>
+      <c r="E11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="9"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="18"/>
-      <c r="K13" s="11" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="14"/>
+      <c r="K13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="29.25" customHeight="1"/>
     <row r="18" spans="1:11" ht="33" customHeight="1">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1">
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:11" ht="27.15" customHeight="1">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="I20" s="29">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="I20" s="25">
         <v>9.8000000000000007</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="25">
         <v>10.8</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27.15" customHeight="1">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="I21" s="29">
+      <c r="D21" s="27"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="I21" s="25">
         <v>18</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="25">
         <v>22</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="27.15" customHeight="1">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="I22" s="29">
+      <c r="D22" s="27"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="I22" s="25">
         <v>1.7</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="25">
         <v>3.5</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="27.15" customHeight="1">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="26"/>
-      <c r="I23" s="29">
+      <c r="D23" s="27"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="I23" s="25">
         <v>11.5</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="25">
         <v>14.5</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="30" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
@@ -1787,8 +1793,9 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E12:F13"/>
   </mergeCells>
-  <conditionalFormatting sqref="E12:F13">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"NO PASSED"</formula>
     </cfRule>

--- a/05.Controls/M3.QA.Controls/Resources/Excels/COA5.xlsx
+++ b/05.Controls/M3.QA.Controls/Resources/Excels/COA5.xlsx
@@ -228,10 +228,10 @@
       <charset val="222"/>
     </font>
     <font>
-      <sz val="20"/>
-      <name val="AngsanaUPC"/>
+      <b/>
+      <sz val="50"/>
+      <name val="Angsana New"/>
       <family val="1"/>
-      <charset val="222"/>
     </font>
   </fonts>
   <fills count="2">
@@ -606,7 +606,7 @@
         <xdr:cNvPr id="2" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF9831F-5240-402C-ABCD-09B0C8E6EC7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CF9831F-5240-402C-ABCD-09B0C8E6EC7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -618,7 +618,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -641,14 +641,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -954,7 +954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="23.4"/>
@@ -975,7 +975,7 @@
     <col min="3" max="3" width="5.21875" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.21875" style="7" customWidth="1"/>
     <col min="5" max="5" width="13" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" style="7" customWidth="1"/>
     <col min="8" max="8" width="3.5546875" style="7" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.21875" style="7" hidden="1" customWidth="1"/>
